--- a/talks/20250824/reg3.xlsx
+++ b/talks/20250824/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -20,64 +20,121 @@
     <t xml:space="preserve">country2</t>
   </si>
   <si>
+    <t xml:space="preserve">Leiden University Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radboud MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Groningen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErasmusMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maastricht University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardio Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfasigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson and Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">Novartis</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Hospital Basel</t>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCONIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytel</t>
   </si>
   <si>
     <t xml:space="preserve">Merck KGaA</t>
   </si>
   <si>
+    <t xml:space="preserve">Finc Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swiss TPH</t>
   </si>
   <si>
+    <t xml:space="preserve">Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idorsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedrich Miescher Institute For Biomedical Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">UCB</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfasigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCONIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idorsia</t>
+    <t xml:space="preserve">Politecnico di Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Milano (Bicocca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aptuit</t>
   </si>
   <si>
     <t xml:space="preserve">BC platforms</t>
@@ -86,79 +143,211 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">LSHTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bristol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute Of Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Manchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Cambridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Warwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King's College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department tropical Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phastar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Southampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan turing Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaceuticals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Sheffield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical University of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London School of Hygiene and Tropical Medicine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ghent University</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson and Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">IDDI</t>
   </si>
   <si>
+    <t xml:space="preserve">Hasselt University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boehringer Ingelheim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">DKFZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Goettingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulm University</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hannover Medical School</t>
   </si>
   <si>
-    <t xml:space="preserve">DKFZ</t>
+    <t xml:space="preserve">IQVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMU MUnich</t>
   </si>
   <si>
     <t xml:space="preserve">University of Heidelberg</t>
   </si>
   <si>
-    <t xml:space="preserve">Boehringer Ingelheim</t>
+    <t xml:space="preserve">Hasso plattner Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Waterloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbbVie</t>
   </si>
   <si>
     <t xml:space="preserve">HTA Germany (IQWiG)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ulm University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanofi</t>
+    <t xml:space="preserve">Fraunhofer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuitive Surgical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Mainz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Augsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolinska</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">Karolinska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phastar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical University of Vienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperial College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radboud MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiden University Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErasmusMC</t>
+    <t xml:space="preserve">Konkuk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chungnam National University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asan Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dongguk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Chiang Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Mahidol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Kyoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center For Medical Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHO Nagoya Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetsuyu Clinical Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chugai</t>
   </si>
   <si>
     <t xml:space="preserve">Novo Nordisk</t>
@@ -167,73 +356,184 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Southern Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Copenhagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Eupla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Galdakao-Usansolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of South Carolina</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States of America</t>
   </si>
   <si>
     <t xml:space="preserve">University of Washington</t>
   </si>
   <si>
+    <t xml:space="preserve">Fred Hutchinson Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medtronic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pfizer</t>
   </si>
   <si>
+    <t xml:space="preserve">MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle Therapeutics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo Clinic</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">University Paris-Saclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFB Biotechnologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Paris City Inserm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR INSERM NOUVELLE AQUITAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorbonne University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Paris City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Auckland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Population And Health Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Children's Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macquarie University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Stavanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Haukeland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedeon Richter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Galway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of the Free State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Calgary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED-EL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Vienna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
+    <t xml:space="preserve">University of Singapore</t>
   </si>
   <si>
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
+    <t xml:space="preserve">Czech Academy of Science</t>
   </si>
   <si>
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Tartu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewha Womans University</t>
   </si>
 </sst>
 </file>
@@ -583,27 +883,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -611,7 +915,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -619,7 +923,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -627,7 +931,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -635,7 +939,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -643,7 +947,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -651,7 +955,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -667,7 +971,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -683,7 +987,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -691,21 +995,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -713,7 +1019,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -721,7 +1027,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -729,7 +1035,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -737,7 +1043,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -745,7 +1051,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -753,7 +1059,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -761,7 +1067,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -769,7 +1075,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -777,7 +1083,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -785,7 +1091,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -793,7 +1099,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -801,112 +1107,122 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40"/>
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41"/>
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45"/>
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -914,457 +1230,531 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47"/>
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48"/>
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50"/>
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53"/>
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55"/>
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56"/>
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59"/>
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60"/>
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61"/>
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62"/>
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63"/>
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64"/>
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68"/>
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69"/>
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70"/>
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71"/>
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72"/>
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74"/>
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76"/>
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77"/>
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78"/>
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81"/>
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82"/>
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84"/>
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85"/>
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86"/>
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87"/>
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88"/>
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91"/>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92"/>
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>26</v>
-      </c>
+      <c r="A93"/>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97"/>
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99"/>
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101"/>
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104"/>
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106"/>
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108"/>
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109"/>
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -1372,1389 +1762,1699 @@
         <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116"/>
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117"/>
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118"/>
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119"/>
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122"/>
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123"/>
+      <c r="A123" t="s">
+        <v>39</v>
+      </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124"/>
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126"/>
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127"/>
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129"/>
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131"/>
+      <c r="A131" t="s">
+        <v>48</v>
+      </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132"/>
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133"/>
+      <c r="A133" t="s">
+        <v>49</v>
+      </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134"/>
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135"/>
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136"/>
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137"/>
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139"/>
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140"/>
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141"/>
+      <c r="A141" t="s">
+        <v>54</v>
+      </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147"/>
+      <c r="A147" t="s">
+        <v>57</v>
+      </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150"/>
+      <c r="A150" t="s">
+        <v>59</v>
+      </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151"/>
+      <c r="A151" t="s">
+        <v>53</v>
+      </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153"/>
+      <c r="A153" t="s">
+        <v>61</v>
+      </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154"/>
+      <c r="A154" t="s">
+        <v>53</v>
+      </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156"/>
+      <c r="A156" t="s">
+        <v>46</v>
+      </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157"/>
+      <c r="A157" t="s">
+        <v>62</v>
+      </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160"/>
+      <c r="A160" t="s">
+        <v>63</v>
+      </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162"/>
+      <c r="A162" t="s">
+        <v>64</v>
+      </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163"/>
+      <c r="A163" t="s">
+        <v>65</v>
+      </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164"/>
+      <c r="A164" t="s">
+        <v>50</v>
+      </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165"/>
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167"/>
+      <c r="A167" t="s">
+        <v>50</v>
+      </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169"/>
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170"/>
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174"/>
+      <c r="A174" t="s">
+        <v>51</v>
+      </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175"/>
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177"/>
+      <c r="A177" t="s">
+        <v>51</v>
+      </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178"/>
+      <c r="A178" t="s">
+        <v>68</v>
+      </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179"/>
+      <c r="A179" t="s">
+        <v>70</v>
+      </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181"/>
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182"/>
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183"/>
+      <c r="A183" t="s">
+        <v>68</v>
+      </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184"/>
+      <c r="A184" t="s">
+        <v>68</v>
+      </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185"/>
+      <c r="A185" t="s">
+        <v>71</v>
+      </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186">
       <c r="A186"/>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187"/>
+      <c r="A187" t="s">
+        <v>72</v>
+      </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188"/>
+      <c r="A188" t="s">
+        <v>74</v>
+      </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189"/>
+      <c r="A189" t="s">
+        <v>75</v>
+      </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190"/>
+      <c r="A190" t="s">
+        <v>76</v>
+      </c>
       <c r="B190" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192"/>
+      <c r="A192" t="s">
+        <v>78</v>
+      </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193"/>
+      <c r="A193" t="s">
+        <v>34</v>
+      </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194"/>
+      <c r="A194" t="s">
+        <v>74</v>
+      </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195"/>
+      <c r="A195" t="s">
+        <v>77</v>
+      </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196"/>
+      <c r="A196" t="s">
+        <v>77</v>
+      </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197"/>
+      <c r="A197" t="s">
+        <v>79</v>
+      </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198"/>
+      <c r="A198" t="s">
+        <v>72</v>
+      </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200"/>
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
-        <v>47</v>
-      </c>
+      <c r="A201"/>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204"/>
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205"/>
+      <c r="A205" t="s">
+        <v>82</v>
+      </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206"/>
+      <c r="A206" t="s">
+        <v>83</v>
+      </c>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208"/>
+      <c r="A208" t="s">
+        <v>72</v>
+      </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210"/>
+      <c r="A210" t="s">
+        <v>85</v>
+      </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212"/>
+      <c r="A212" t="s">
+        <v>87</v>
+      </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213"/>
+      <c r="A213" t="s">
+        <v>23</v>
+      </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214"/>
+      <c r="A214" t="s">
+        <v>78</v>
+      </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215"/>
+      <c r="A215" t="s">
+        <v>79</v>
+      </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216"/>
+      <c r="A216" t="s">
+        <v>88</v>
+      </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217">
       <c r="A217"/>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218"/>
+      <c r="A218" t="s">
+        <v>77</v>
+      </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220"/>
+      <c r="A220" t="s">
+        <v>77</v>
+      </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221"/>
+      <c r="A221" t="s">
+        <v>89</v>
+      </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222"/>
+      <c r="A222" t="s">
+        <v>90</v>
+      </c>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223"/>
+      <c r="A223" t="s">
+        <v>91</v>
+      </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B224" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225"/>
+      <c r="A225" t="s">
+        <v>78</v>
+      </c>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226"/>
+      <c r="A226" t="s">
+        <v>53</v>
+      </c>
       <c r="B226" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229"/>
+      <c r="A229" t="s">
+        <v>74</v>
+      </c>
       <c r="B229" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230"/>
+      <c r="A230" t="s">
+        <v>89</v>
+      </c>
       <c r="B230" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231"/>
+      <c r="A231" t="s">
+        <v>93</v>
+      </c>
       <c r="B231" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232"/>
+      <c r="A232" t="s">
+        <v>93</v>
+      </c>
       <c r="B232" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233"/>
+      <c r="A233" t="s">
+        <v>31</v>
+      </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234"/>
+      <c r="A234" t="s">
+        <v>31</v>
+      </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235"/>
+      <c r="A235" t="s">
+        <v>95</v>
+      </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237"/>
+      <c r="A237" t="s">
+        <v>98</v>
+      </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238"/>
+      <c r="A238" t="s">
+        <v>99</v>
+      </c>
       <c r="B238" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239"/>
+      <c r="A239" t="s">
+        <v>98</v>
+      </c>
       <c r="B239" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240"/>
+      <c r="A240" t="s">
+        <v>100</v>
+      </c>
       <c r="B240" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241"/>
+      <c r="A241" t="s">
+        <v>99</v>
+      </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242"/>
+      <c r="A242" t="s">
+        <v>101</v>
+      </c>
       <c r="B242" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243"/>
+      <c r="A243" t="s">
+        <v>98</v>
+      </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244"/>
+      <c r="A244" t="s">
+        <v>102</v>
+      </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B245" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246"/>
+      <c r="A246" t="s">
+        <v>102</v>
+      </c>
       <c r="B246" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247"/>
+      <c r="A247" t="s">
+        <v>102</v>
+      </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248"/>
+      <c r="A248" t="s">
+        <v>102</v>
+      </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249"/>
+      <c r="A249" t="s">
+        <v>102</v>
+      </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252"/>
+      <c r="A252" t="s">
+        <v>107</v>
+      </c>
       <c r="B252" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254"/>
+      <c r="A254" t="s">
+        <v>108</v>
+      </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255"/>
+      <c r="A255" t="s">
+        <v>109</v>
+      </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256"/>
+      <c r="A256" t="s">
+        <v>110</v>
+      </c>
       <c r="B256" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257"/>
+      <c r="A257" t="s">
+        <v>111</v>
+      </c>
       <c r="B257" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258"/>
+      <c r="A258" t="s">
+        <v>107</v>
+      </c>
       <c r="B258" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259"/>
+      <c r="A259" t="s">
+        <v>112</v>
+      </c>
       <c r="B259" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260"/>
+      <c r="A260" t="s">
+        <v>114</v>
+      </c>
       <c r="B260" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261"/>
+      <c r="A261" t="s">
+        <v>115</v>
+      </c>
       <c r="B261" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262"/>
+      <c r="A262" t="s">
+        <v>115</v>
+      </c>
       <c r="B262" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263"/>
+      <c r="A263" t="s">
+        <v>115</v>
+      </c>
       <c r="B263" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="264">
       <c r="A264"/>
       <c r="B264" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265"/>
+      <c r="A265" t="s">
+        <v>112</v>
+      </c>
       <c r="B265" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266"/>
+      <c r="A266" t="s">
+        <v>117</v>
+      </c>
       <c r="B266" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="267">
       <c r="A267"/>
       <c r="B267" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268"/>
+      <c r="A268" t="s">
+        <v>118</v>
+      </c>
       <c r="B268" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="269">
       <c r="A269"/>
       <c r="B269" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="270">
       <c r="A270"/>
       <c r="B270" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="271">
       <c r="A271"/>
       <c r="B271" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272"/>
+      <c r="A272" t="s">
+        <v>119</v>
+      </c>
       <c r="B272" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="273">
       <c r="A273"/>
       <c r="B273" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B274" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275"/>
+      <c r="A275" t="s">
+        <v>121</v>
+      </c>
       <c r="B275" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B276" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277"/>
+      <c r="A277" t="s">
+        <v>124</v>
+      </c>
       <c r="B277" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278"/>
+      <c r="A278" t="s">
+        <v>125</v>
+      </c>
       <c r="B278" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279"/>
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
       <c r="B279" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280"/>
+      <c r="A280" t="s">
+        <v>124</v>
+      </c>
       <c r="B280" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281"/>
+      <c r="A281" t="s">
+        <v>126</v>
+      </c>
       <c r="B281" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282"/>
+      <c r="A282" t="s">
+        <v>127</v>
+      </c>
       <c r="B282" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283"/>
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
       <c r="B283" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284"/>
+      <c r="A284" t="s">
+        <v>128</v>
+      </c>
       <c r="B284" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285"/>
+      <c r="A285" t="s">
+        <v>124</v>
+      </c>
       <c r="B285" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286"/>
+      <c r="A286" t="s">
+        <v>129</v>
+      </c>
       <c r="B286" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287"/>
+      <c r="A287" t="s">
+        <v>130</v>
+      </c>
       <c r="B287" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288"/>
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
       <c r="B288" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="289">
       <c r="A289"/>
       <c r="B289" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290"/>
+      <c r="A290" t="s">
+        <v>132</v>
+      </c>
       <c r="B290" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291"/>
+      <c r="A291" t="s">
+        <v>133</v>
+      </c>
       <c r="B291" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292"/>
+      <c r="A292" t="s">
+        <v>134</v>
+      </c>
       <c r="B292" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="293">
       <c r="A293"/>
       <c r="B293" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294"/>
+      <c r="A294" t="s">
+        <v>22</v>
+      </c>
       <c r="B294" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295"/>
+      <c r="A295" t="s">
+        <v>135</v>
+      </c>
       <c r="B295" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296"/>
+      <c r="A296" t="s">
+        <v>136</v>
+      </c>
       <c r="B296" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297"/>
+      <c r="A297" t="s">
+        <v>137</v>
+      </c>
       <c r="B297" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298"/>
+      <c r="A298" t="s">
+        <v>138</v>
+      </c>
       <c r="B298" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299"/>
+      <c r="A299" t="s">
+        <v>15</v>
+      </c>
       <c r="B299" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300"/>
+      <c r="A300" t="s">
+        <v>139</v>
+      </c>
       <c r="B300" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301"/>
+      <c r="A301" t="s">
+        <v>140</v>
+      </c>
       <c r="B301" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302"/>
+      <c r="A302" t="s">
+        <v>30</v>
+      </c>
       <c r="B302" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303"/>
+      <c r="A303" t="s">
+        <v>141</v>
+      </c>
       <c r="B303" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304"/>
+      <c r="A304" t="s">
+        <v>16</v>
+      </c>
       <c r="B304" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="305">
       <c r="A305"/>
       <c r="B305" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="306">
       <c r="A306"/>
       <c r="B306" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307"/>
+      <c r="A307" t="s">
+        <v>134</v>
+      </c>
       <c r="B307" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308"/>
+      <c r="A308" t="s">
+        <v>142</v>
+      </c>
       <c r="B308" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309"/>
+      <c r="A309" t="s">
+        <v>144</v>
+      </c>
       <c r="B309" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310"/>
+      <c r="A310" t="s">
+        <v>146</v>
+      </c>
       <c r="B310" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311"/>
+      <c r="A311" t="s">
+        <v>148</v>
+      </c>
       <c r="B311" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312"/>
+      <c r="A312" t="s">
+        <v>149</v>
+      </c>
       <c r="B312" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313"/>
+      <c r="A313" t="s">
+        <v>150</v>
+      </c>
       <c r="B313" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314"/>
+      <c r="A314" t="s">
+        <v>151</v>
+      </c>
       <c r="B314" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315"/>
+      <c r="A315" t="s">
+        <v>152</v>
+      </c>
       <c r="B315" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316"/>
+      <c r="A316" t="s">
+        <v>154</v>
+      </c>
       <c r="B316" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317"/>
+      <c r="A317" t="s">
+        <v>155</v>
+      </c>
       <c r="B317" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318"/>
+      <c r="A318" t="s">
+        <v>157</v>
+      </c>
       <c r="B318" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319"/>
+      <c r="A319" t="s">
+        <v>157</v>
+      </c>
       <c r="B319" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320"/>
+      <c r="A320" t="s">
+        <v>159</v>
+      </c>
       <c r="B320" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321"/>
+      <c r="A321" t="s">
+        <v>161</v>
+      </c>
       <c r="B321" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
     </row>
     <row r="322">
       <c r="A322"/>
       <c r="B322" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323"/>
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
       <c r="B323" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324"/>
+      <c r="A324" t="s">
+        <v>165</v>
+      </c>
       <c r="B324" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325"/>
+      <c r="A325" t="s">
+        <v>72</v>
+      </c>
       <c r="B325" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326"/>
+      <c r="A326" t="s">
+        <v>167</v>
+      </c>
       <c r="B326" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327"/>
+      <c r="A327" t="s">
+        <v>169</v>
+      </c>
       <c r="B327" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328"/>
+      <c r="A328" t="s">
+        <v>171</v>
+      </c>
       <c r="B328" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
     </row>
     <row r="329">
@@ -2768,6 +3468,38 @@
     <row r="331">
       <c r="A331"/>
       <c r="B331"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>99</v>
+      </c>
+      <c r="B332"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>173</v>
+      </c>
+      <c r="B333"/>
+    </row>
+    <row r="334">
+      <c r="A334"/>
+      <c r="B334"/>
+    </row>
+    <row r="335">
+      <c r="A335"/>
+      <c r="B335"/>
+    </row>
+    <row r="336">
+      <c r="A336"/>
+      <c r="B336"/>
+    </row>
+    <row r="337">
+      <c r="A337"/>
+      <c r="B337"/>
+    </row>
+    <row r="338">
+      <c r="A338"/>
+      <c r="B338"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/talks/20250824/reg3.xlsx
+++ b/talks/20250824/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -20,6 +20,351 @@
     <t xml:space="preserve">country2</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Cambridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Warwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King's College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bristol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Manchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson and Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardio Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator Switzerland (Swissmedic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idorsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfasigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCONIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merck KGaA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finc Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cencora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedrich Miescher Institute For Biomedical Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md-clinicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boehringer Ingelheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Greifswald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leipzig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulm University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannover Medical School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKFZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staburo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charite Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Augsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuitive Surgical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasso plattner Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Rostock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA Germany (IQWiG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWTH Aachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Goettingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Mainz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbbVie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Willmar Schwabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bochum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Waterloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris Brain Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Paris City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFB Biotechnologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Paris City Inserm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Paris-Saclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saryga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argenx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR INSERM NOUVELLE AQUITAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medtronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Hutchinson Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle Therapeutics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacira Biosciences Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novo Nordisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Southern Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish National Cancer Research Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Galdakao-Usansolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vall D'hebron Institute Of Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSHTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eupla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Chiang Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Mahidol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leiden University Medical Center</t>
   </si>
   <si>
@@ -29,108 +374,150 @@
     <t xml:space="preserve">Radboud MC</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErasmusMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator Netherlands (CBG-MEB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maastricht University</t>
+  </si>
+  <si>
     <t xml:space="preserve">University Of Groningen</t>
   </si>
   <si>
-    <t xml:space="preserve">ErasmusMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Amsterdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maastricht University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardio Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Hospital Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bordeaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfasigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson and Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novartis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCONIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck KGaA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finc Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss TPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idorsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedrich Miescher Institute For Biomedical Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCB</t>
+    <t xml:space="preserve">Danone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Haukeland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Stavanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Beijing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EORTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasselt University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghent University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiichi Sankyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chugai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center For Medical Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaken Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Kyoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Osaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHO Nagoya Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetsuyu Clinical Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED-EL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical University of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macquarie University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monash University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Children's Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Calgary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Auckland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Rome</t>
   </si>
   <si>
     <t xml:space="preserve">Politecnico di Milano</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">University Milano (Bicocca)</t>
   </si>
   <si>
@@ -143,397 +530,199 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">LSHTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOMEDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolinska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of the Free State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asan Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konkuk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chungnam National University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewha Womans University Mokdong Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dongguk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewha Womans University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Ulsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Population And Health Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Lucknow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Academy of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedeon Richter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Galway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tartu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London School of Hygiene and Tropical Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department tropical Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phastar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute Of Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Exeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan turing Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Sheffield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leeds</t>
   </si>
   <si>
     <t xml:space="preserve">Imperial College London</t>
   </si>
   <si>
+    <t xml:space="preserve">The University of Manchester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reckitt</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Bristol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute Of Cancer Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Manchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Birmingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Cambridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Warwick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department tropical Medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phastar</t>
+    <t xml:space="preserve">MRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaceuticals</t>
   </si>
   <si>
     <t xml:space="preserve">University of Southampton</t>
   </si>
   <si>
-    <t xml:space="preserve">Alan turing Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaceuticals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Sheffield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical University of Vienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London School of Hygiene and Tropical Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghent University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasselt University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boehringer Ingelheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKFZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogitars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Goettingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Freiburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulm University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannover Medical School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMU MUnich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Heidelberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasso plattner Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanofi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Waterloo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbbVie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA Germany (IQWiG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inuitive Surgical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Mainz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Augsburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolinska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konkuk University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Cancer Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chungnam National University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asan Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Cancer Center Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongguk University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Chiang Mai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Mahidol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Kyoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center For Medical Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHO Nagoya Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuyu Clinical Research Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chugai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novo Nordisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Southern Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Copenhagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Galdakao-Usansolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred Hutchinson Cancer Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medtronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicycle Therapeutics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo Clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Paris-Saclay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFB Biotechnologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Paris City Inserm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR INSERM NOUVELLE AQUITAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogitamen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorbonne University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Paris City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Auckland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Population And Health Research Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murdoch Children's Research Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macquarie University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Stavanger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Haukeland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedeon Richter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Galway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of the Free State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Calgary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED-EL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Vienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Academy of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Tartu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ewha Womans University</t>
+    <t xml:space="preserve">University of Edinburgh</t>
   </si>
 </sst>
 </file>
@@ -891,7 +1080,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -899,7 +1088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -907,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -915,7 +1104,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -923,7 +1112,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -931,31 +1120,27 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -963,7 +1148,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -971,7 +1156,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -979,7 +1164,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -987,7 +1172,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -995,146 +1180,142 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
+      <c r="A19"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1142,119 +1323,117 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
+      <c r="A42"/>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1262,279 +1441,275 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
+      <c r="A61"/>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
+      <c r="A82"/>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -1542,125 +1717,123 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93"/>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
+      <c r="A94"/>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s">
-        <v>23</v>
-      </c>
+      <c r="A100"/>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -1668,61 +1841,59 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
-        <v>23</v>
-      </c>
+      <c r="A104"/>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -1730,1776 +1901,5174 @@
         <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>34</v>
-      </c>
+      <c r="A112"/>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
+      <c r="A115"/>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>43</v>
-      </c>
+      <c r="A132"/>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
-        <v>50</v>
-      </c>
+      <c r="A134"/>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>53</v>
-      </c>
+      <c r="A149"/>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
-        <v>46</v>
-      </c>
+      <c r="A156"/>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
-        <v>62</v>
-      </c>
+      <c r="A157"/>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
-        <v>63</v>
-      </c>
+      <c r="A160"/>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>64</v>
-      </c>
+      <c r="A162"/>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>48</v>
-      </c>
+      <c r="A165"/>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s">
-        <v>50</v>
-      </c>
+      <c r="A167"/>
       <c r="B167" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s">
-        <v>67</v>
-      </c>
+      <c r="A168"/>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>58</v>
-      </c>
+      <c r="A173"/>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
-        <v>51</v>
-      </c>
+      <c r="A177"/>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>68</v>
-      </c>
+      <c r="A178"/>
       <c r="B178" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
-        <v>7</v>
-      </c>
+      <c r="A182"/>
       <c r="B182" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B183" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186"/>
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
       <c r="B186" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B194" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B195" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B197" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201">
       <c r="A201"/>
       <c r="B201" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s">
-        <v>80</v>
-      </c>
+      <c r="A202"/>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B207" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
-        <v>72</v>
-      </c>
+      <c r="A208"/>
       <c r="B208" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
-        <v>84</v>
-      </c>
+      <c r="A209"/>
       <c r="B209" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s">
-        <v>85</v>
-      </c>
+      <c r="A210"/>
       <c r="B210" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>87</v>
-      </c>
+      <c r="A212"/>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
-        <v>23</v>
-      </c>
+      <c r="A213"/>
       <c r="B213" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B214" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B215" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217"/>
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
       <c r="B217" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B218" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>77</v>
-      </c>
+      <c r="A219"/>
       <c r="B219" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s">
-        <v>92</v>
-      </c>
+      <c r="A224"/>
       <c r="B224" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s">
-        <v>78</v>
-      </c>
+      <c r="A225"/>
       <c r="B225" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s">
-        <v>53</v>
-      </c>
+      <c r="A226"/>
       <c r="B226" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B229" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s">
-        <v>89</v>
-      </c>
+      <c r="A230"/>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B232" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
-        <v>31</v>
-      </c>
+      <c r="A233"/>
       <c r="B233" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s">
-        <v>31</v>
-      </c>
+      <c r="A234"/>
       <c r="B234" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B236" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B237" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B238" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s">
-        <v>98</v>
-      </c>
+      <c r="A239"/>
       <c r="B239" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B241" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s">
-        <v>101</v>
-      </c>
+      <c r="A242"/>
       <c r="B242" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s">
-        <v>104</v>
-      </c>
+      <c r="A245"/>
       <c r="B245" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s">
-        <v>102</v>
-      </c>
+      <c r="A247"/>
       <c r="B247" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s">
-        <v>105</v>
-      </c>
+      <c r="A250"/>
       <c r="B250" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s">
-        <v>105</v>
-      </c>
+      <c r="A251"/>
       <c r="B251" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s">
-        <v>107</v>
-      </c>
+      <c r="A252"/>
       <c r="B252" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s">
-        <v>105</v>
-      </c>
+      <c r="A253"/>
       <c r="B253" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s">
-        <v>109</v>
-      </c>
+      <c r="A255"/>
       <c r="B255" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s">
-        <v>111</v>
-      </c>
+      <c r="A257"/>
       <c r="B257" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B259" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s">
-        <v>114</v>
-      </c>
+      <c r="A260"/>
       <c r="B260" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B261" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s">
-        <v>115</v>
-      </c>
+      <c r="A262"/>
       <c r="B262" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B263" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264">
       <c r="A264"/>
       <c r="B264" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s">
-        <v>112</v>
-      </c>
+      <c r="A265"/>
       <c r="B265" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B266" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267">
       <c r="A267"/>
       <c r="B267" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s">
-        <v>118</v>
-      </c>
+      <c r="A268"/>
       <c r="B268" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269"/>
+      <c r="A269" t="s">
+        <v>70</v>
+      </c>
       <c r="B269" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270"/>
+      <c r="A270" t="s">
+        <v>71</v>
+      </c>
       <c r="B270" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271"/>
+      <c r="A271" t="s">
+        <v>72</v>
+      </c>
       <c r="B271" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B272" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273"/>
+      <c r="A273" t="s">
+        <v>74</v>
+      </c>
       <c r="B273" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B274" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B275" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B276" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B277" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B278" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s">
-        <v>15</v>
-      </c>
+      <c r="A279"/>
       <c r="B279" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B280" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B281" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B282" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B283" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B284" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B285" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B286" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B287" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B288" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
       <c r="A289"/>
       <c r="B289" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s">
-        <v>132</v>
-      </c>
+      <c r="A290"/>
       <c r="B290" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B291" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s">
-        <v>134</v>
-      </c>
+      <c r="A292"/>
       <c r="B292" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293"/>
+      <c r="A293" t="s">
+        <v>84</v>
+      </c>
       <c r="B293" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s">
-        <v>22</v>
-      </c>
+      <c r="A294"/>
       <c r="B294" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B295" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s">
-        <v>136</v>
-      </c>
+      <c r="A296"/>
       <c r="B296" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s">
-        <v>137</v>
-      </c>
+      <c r="A297"/>
       <c r="B297" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B298" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s">
-        <v>15</v>
-      </c>
+      <c r="A299"/>
       <c r="B299" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B300" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B301" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s">
-        <v>30</v>
-      </c>
+      <c r="A302"/>
       <c r="B302" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s">
-        <v>141</v>
-      </c>
+      <c r="A303"/>
       <c r="B303" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s">
-        <v>16</v>
-      </c>
+      <c r="A304"/>
       <c r="B304" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305"/>
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
       <c r="B305" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306">
       <c r="A306"/>
       <c r="B306" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s">
-        <v>134</v>
-      </c>
+      <c r="A307"/>
       <c r="B307" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B308" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s">
-        <v>144</v>
-      </c>
+      <c r="A309"/>
       <c r="B309" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="B310" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B311" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s">
-        <v>149</v>
-      </c>
+      <c r="A312"/>
       <c r="B312" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s">
-        <v>150</v>
-      </c>
+      <c r="A313"/>
       <c r="B313" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s">
-        <v>152</v>
-      </c>
+      <c r="A315"/>
       <c r="B315" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s">
-        <v>154</v>
-      </c>
+      <c r="A316"/>
       <c r="B316" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s">
-        <v>155</v>
-      </c>
+      <c r="A317"/>
       <c r="B317" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B318" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s">
-        <v>159</v>
-      </c>
+      <c r="A320"/>
       <c r="B320" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="B321" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322">
       <c r="A322"/>
       <c r="B322" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s">
-        <v>164</v>
-      </c>
+      <c r="A323"/>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s">
-        <v>165</v>
-      </c>
+      <c r="A324"/>
       <c r="B324" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s">
-        <v>167</v>
-      </c>
+      <c r="A326"/>
       <c r="B326" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s">
-        <v>171</v>
-      </c>
+      <c r="A328"/>
       <c r="B328" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329">
       <c r="A329"/>
-      <c r="B329"/>
+      <c r="B329" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330"/>
-      <c r="B330"/>
+      <c r="B330" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331"/>
-      <c r="B331"/>
+      <c r="B331" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>99</v>
-      </c>
-      <c r="B332"/>
+        <v>81</v>
+      </c>
+      <c r="B332" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>173</v>
-      </c>
-      <c r="B333"/>
+        <v>84</v>
+      </c>
+      <c r="B333" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="334">
-      <c r="A334"/>
-      <c r="B334"/>
+      <c r="A334" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="335">
-      <c r="A335"/>
-      <c r="B335"/>
+      <c r="A335" t="s">
+        <v>81</v>
+      </c>
+      <c r="B335" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="336">
-      <c r="A336"/>
-      <c r="B336"/>
+      <c r="A336" t="s">
+        <v>87</v>
+      </c>
+      <c r="B336" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="337">
-      <c r="A337"/>
-      <c r="B337"/>
+      <c r="A337" t="s">
+        <v>78</v>
+      </c>
+      <c r="B337" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338"/>
-      <c r="B338"/>
+      <c r="B338" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>88</v>
+      </c>
+      <c r="B339" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340"/>
+      <c r="B340" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>81</v>
+      </c>
+      <c r="B341" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343"/>
+      <c r="B343" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344"/>
+      <c r="B344" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345"/>
+      <c r="B345" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346"/>
+      <c r="B346" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347"/>
+      <c r="B347" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348"/>
+      <c r="B348" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349"/>
+      <c r="B349" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>89</v>
+      </c>
+      <c r="B350" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352"/>
+      <c r="B352" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353"/>
+      <c r="B353" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354"/>
+      <c r="B354" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>84</v>
+      </c>
+      <c r="B355" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356"/>
+      <c r="B356" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357"/>
+      <c r="B357" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>76</v>
+      </c>
+      <c r="B359" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>90</v>
+      </c>
+      <c r="B360" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361"/>
+      <c r="B361" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>92</v>
+      </c>
+      <c r="B362" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>93</v>
+      </c>
+      <c r="B363" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>94</v>
+      </c>
+      <c r="B365" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>95</v>
+      </c>
+      <c r="B366" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>96</v>
+      </c>
+      <c r="B367" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>76</v>
+      </c>
+      <c r="B368" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369"/>
+      <c r="B369" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>92</v>
+      </c>
+      <c r="B370" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371"/>
+      <c r="B371" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>97</v>
+      </c>
+      <c r="B372" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>98</v>
+      </c>
+      <c r="B374" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>92</v>
+      </c>
+      <c r="B375" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>98</v>
+      </c>
+      <c r="B377" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>94</v>
+      </c>
+      <c r="B378" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>99</v>
+      </c>
+      <c r="B379" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>100</v>
+      </c>
+      <c r="B380" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381"/>
+      <c r="B381" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>101</v>
+      </c>
+      <c r="B382" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>101</v>
+      </c>
+      <c r="B383" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384"/>
+      <c r="B384" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385"/>
+      <c r="B385" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386"/>
+      <c r="B386" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>101</v>
+      </c>
+      <c r="B387" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>102</v>
+      </c>
+      <c r="B388" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>104</v>
+      </c>
+      <c r="B389" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>105</v>
+      </c>
+      <c r="B390" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>105</v>
+      </c>
+      <c r="B391" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392"/>
+      <c r="B392" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>104</v>
+      </c>
+      <c r="B393" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>102</v>
+      </c>
+      <c r="B394" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>102</v>
+      </c>
+      <c r="B395" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>106</v>
+      </c>
+      <c r="B396" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>102</v>
+      </c>
+      <c r="B397" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>105</v>
+      </c>
+      <c r="B398" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399"/>
+      <c r="B399" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400"/>
+      <c r="B400" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>102</v>
+      </c>
+      <c r="B401" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402"/>
+      <c r="B402" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>105</v>
+      </c>
+      <c r="B403" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404"/>
+      <c r="B404" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405"/>
+      <c r="B405" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406"/>
+      <c r="B406" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>108</v>
+      </c>
+      <c r="B407" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>109</v>
+      </c>
+      <c r="B408" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>110</v>
+      </c>
+      <c r="B409" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>111</v>
+      </c>
+      <c r="B410" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411"/>
+      <c r="B411" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412"/>
+      <c r="B412" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413"/>
+      <c r="B413" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414"/>
+      <c r="B414" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415"/>
+      <c r="B415" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416"/>
+      <c r="B416" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>112</v>
+      </c>
+      <c r="B417" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418"/>
+      <c r="B418" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419"/>
+      <c r="B419" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>113</v>
+      </c>
+      <c r="B420" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421"/>
+      <c r="B421" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422"/>
+      <c r="B422" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423"/>
+      <c r="B423" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424"/>
+      <c r="B424" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>102</v>
+      </c>
+      <c r="B425" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426"/>
+      <c r="B426" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>115</v>
+      </c>
+      <c r="B427" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>116</v>
+      </c>
+      <c r="B428" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>115</v>
+      </c>
+      <c r="B429" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430"/>
+      <c r="B430" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>115</v>
+      </c>
+      <c r="B431" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>115</v>
+      </c>
+      <c r="B432" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>116</v>
+      </c>
+      <c r="B433" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>115</v>
+      </c>
+      <c r="B434" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>116</v>
+      </c>
+      <c r="B435" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>117</v>
+      </c>
+      <c r="B436" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>117</v>
+      </c>
+      <c r="B438" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>117</v>
+      </c>
+      <c r="B439" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>117</v>
+      </c>
+      <c r="B440" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>117</v>
+      </c>
+      <c r="B441" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>117</v>
+      </c>
+      <c r="B442" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>117</v>
+      </c>
+      <c r="B443" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>117</v>
+      </c>
+      <c r="B444" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>119</v>
+      </c>
+      <c r="B445" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>120</v>
+      </c>
+      <c r="B446" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>120</v>
+      </c>
+      <c r="B447" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>117</v>
+      </c>
+      <c r="B448" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>117</v>
+      </c>
+      <c r="B449" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>119</v>
+      </c>
+      <c r="B450" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>117</v>
+      </c>
+      <c r="B451" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>117</v>
+      </c>
+      <c r="B452" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>121</v>
+      </c>
+      <c r="B453" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>117</v>
+      </c>
+      <c r="B454" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>119</v>
+      </c>
+      <c r="B455" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>119</v>
+      </c>
+      <c r="B456" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>122</v>
+      </c>
+      <c r="B457" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>117</v>
+      </c>
+      <c r="B459" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>117</v>
+      </c>
+      <c r="B460" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>120</v>
+      </c>
+      <c r="B461" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462"/>
+      <c r="B462" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463"/>
+      <c r="B463" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>123</v>
+      </c>
+      <c r="B464" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>119</v>
+      </c>
+      <c r="B465" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>117</v>
+      </c>
+      <c r="B466" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>122</v>
+      </c>
+      <c r="B467" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468"/>
+      <c r="B468" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>124</v>
+      </c>
+      <c r="B469" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>122</v>
+      </c>
+      <c r="B470" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>120</v>
+      </c>
+      <c r="B471" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472"/>
+      <c r="B472" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473"/>
+      <c r="B473" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>125</v>
+      </c>
+      <c r="B474" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>126</v>
+      </c>
+      <c r="B475" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>119</v>
+      </c>
+      <c r="B476" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>125</v>
+      </c>
+      <c r="B477" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>117</v>
+      </c>
+      <c r="B478" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>120</v>
+      </c>
+      <c r="B479" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>119</v>
+      </c>
+      <c r="B480" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>119</v>
+      </c>
+      <c r="B481" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>119</v>
+      </c>
+      <c r="B482" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483"/>
+      <c r="B483" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>124</v>
+      </c>
+      <c r="B484" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485"/>
+      <c r="B485" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486"/>
+      <c r="B486" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487"/>
+      <c r="B487" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488"/>
+      <c r="B488" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>128</v>
+      </c>
+      <c r="B489" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>129</v>
+      </c>
+      <c r="B490" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>128</v>
+      </c>
+      <c r="B491" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>131</v>
+      </c>
+      <c r="B493" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494"/>
+      <c r="B494" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495"/>
+      <c r="B495" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496"/>
+      <c r="B496" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>133</v>
+      </c>
+      <c r="B497" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498"/>
+      <c r="B498" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>134</v>
+      </c>
+      <c r="B499" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>135</v>
+      </c>
+      <c r="B500" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501"/>
+      <c r="B501" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>135</v>
+      </c>
+      <c r="B502" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>133</v>
+      </c>
+      <c r="B503" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504"/>
+      <c r="B504" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>120</v>
+      </c>
+      <c r="B505" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>135</v>
+      </c>
+      <c r="B506" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>135</v>
+      </c>
+      <c r="B507" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>135</v>
+      </c>
+      <c r="B508" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>13</v>
+      </c>
+      <c r="B509" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>135</v>
+      </c>
+      <c r="B510" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>136</v>
+      </c>
+      <c r="B511" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>13</v>
+      </c>
+      <c r="B512" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513"/>
+      <c r="B513" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514"/>
+      <c r="B514" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>135</v>
+      </c>
+      <c r="B515" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516"/>
+      <c r="B516" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>135</v>
+      </c>
+      <c r="B517" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518"/>
+      <c r="B518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>13</v>
+      </c>
+      <c r="B519" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>133</v>
+      </c>
+      <c r="B520" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521"/>
+      <c r="B521" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522"/>
+      <c r="B522" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>138</v>
+      </c>
+      <c r="B523" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>139</v>
+      </c>
+      <c r="B524" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525"/>
+      <c r="B525" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>140</v>
+      </c>
+      <c r="B526" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>141</v>
+      </c>
+      <c r="B527" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>142</v>
+      </c>
+      <c r="B528" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529"/>
+      <c r="B529" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>143</v>
+      </c>
+      <c r="B530" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531"/>
+      <c r="B531" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532"/>
+      <c r="B532" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>144</v>
+      </c>
+      <c r="B533" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534"/>
+      <c r="B534" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>145</v>
+      </c>
+      <c r="B535" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536"/>
+      <c r="B536" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537"/>
+      <c r="B537" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>146</v>
+      </c>
+      <c r="B538" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539"/>
+      <c r="B539" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540"/>
+      <c r="B540" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541"/>
+      <c r="B541" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>145</v>
+      </c>
+      <c r="B542" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543"/>
+      <c r="B543" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544"/>
+      <c r="B544" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>145</v>
+      </c>
+      <c r="B545" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546"/>
+      <c r="B546" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547"/>
+      <c r="B547" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>147</v>
+      </c>
+      <c r="B548" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549"/>
+      <c r="B549" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>144</v>
+      </c>
+      <c r="B550" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551"/>
+      <c r="B551" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>143</v>
+      </c>
+      <c r="B552" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>144</v>
+      </c>
+      <c r="B553" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554"/>
+      <c r="B554" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555"/>
+      <c r="B555" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>135</v>
+      </c>
+      <c r="B556" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>45</v>
+      </c>
+      <c r="B557" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>150</v>
+      </c>
+      <c r="B558" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>152</v>
+      </c>
+      <c r="B559" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560"/>
+      <c r="B560" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561"/>
+      <c r="B561" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>153</v>
+      </c>
+      <c r="B562" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>150</v>
+      </c>
+      <c r="B563" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564"/>
+      <c r="B564" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>150</v>
+      </c>
+      <c r="B565" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>150</v>
+      </c>
+      <c r="B566" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>150</v>
+      </c>
+      <c r="B567" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568"/>
+      <c r="B568" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569"/>
+      <c r="B569" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>154</v>
+      </c>
+      <c r="B570" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571"/>
+      <c r="B571" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572"/>
+      <c r="B572" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>156</v>
+      </c>
+      <c r="B573" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574"/>
+      <c r="B574" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>157</v>
+      </c>
+      <c r="B575" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>13</v>
+      </c>
+      <c r="B576" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>158</v>
+      </c>
+      <c r="B577" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578"/>
+      <c r="B578" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579"/>
+      <c r="B579" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>159</v>
+      </c>
+      <c r="B580" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>160</v>
+      </c>
+      <c r="B581" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582"/>
+      <c r="B582" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583"/>
+      <c r="B583" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584"/>
+      <c r="B584" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585"/>
+      <c r="B585" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586"/>
+      <c r="B586" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587"/>
+      <c r="B587" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>162</v>
+      </c>
+      <c r="B588" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>9</v>
+      </c>
+      <c r="B589" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590"/>
+      <c r="B590" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591"/>
+      <c r="B591" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592"/>
+      <c r="B592" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593"/>
+      <c r="B593" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>163</v>
+      </c>
+      <c r="B594" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>163</v>
+      </c>
+      <c r="B595" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596"/>
+      <c r="B596" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597"/>
+      <c r="B597" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598"/>
+      <c r="B598" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599"/>
+      <c r="B599" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>166</v>
+      </c>
+      <c r="B600" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>167</v>
+      </c>
+      <c r="B601" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602"/>
+      <c r="B602" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603"/>
+      <c r="B603" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>167</v>
+      </c>
+      <c r="B604" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>167</v>
+      </c>
+      <c r="B605" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606"/>
+      <c r="B606" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>168</v>
+      </c>
+      <c r="B607" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608"/>
+      <c r="B608" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>166</v>
+      </c>
+      <c r="B609" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610"/>
+      <c r="B610" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611"/>
+      <c r="B611" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612"/>
+      <c r="B612" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>168</v>
+      </c>
+      <c r="B613" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614"/>
+      <c r="B614" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615"/>
+      <c r="B615" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>30</v>
+      </c>
+      <c r="B616" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>168</v>
+      </c>
+      <c r="B617" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618"/>
+      <c r="B618" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>166</v>
+      </c>
+      <c r="B619" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>168</v>
+      </c>
+      <c r="B620" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621"/>
+      <c r="B621" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622"/>
+      <c r="B622" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>169</v>
+      </c>
+      <c r="B623" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624"/>
+      <c r="B624" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>170</v>
+      </c>
+      <c r="B625" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626"/>
+      <c r="B626" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627"/>
+      <c r="B627" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628"/>
+      <c r="B628" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629"/>
+      <c r="B629" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630"/>
+      <c r="B630" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631"/>
+      <c r="B631" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632"/>
+      <c r="B632" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633"/>
+      <c r="B633" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634"/>
+      <c r="B634" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>65</v>
+      </c>
+      <c r="B635" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636"/>
+      <c r="B636" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>173</v>
+      </c>
+      <c r="B637" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638"/>
+      <c r="B638" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>52</v>
+      </c>
+      <c r="B639" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640"/>
+      <c r="B640" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>175</v>
+      </c>
+      <c r="B641" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>175</v>
+      </c>
+      <c r="B642" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643"/>
+      <c r="B643" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>42</v>
+      </c>
+      <c r="B644" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>176</v>
+      </c>
+      <c r="B645" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>42</v>
+      </c>
+      <c r="B646" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>175</v>
+      </c>
+      <c r="B647" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648"/>
+      <c r="B648" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649"/>
+      <c r="B649" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650"/>
+      <c r="B650" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>178</v>
+      </c>
+      <c r="B651" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>176</v>
+      </c>
+      <c r="B652" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>176</v>
+      </c>
+      <c r="B653" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>176</v>
+      </c>
+      <c r="B654" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>176</v>
+      </c>
+      <c r="B655" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656"/>
+      <c r="B656" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>176</v>
+      </c>
+      <c r="B657" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658"/>
+      <c r="B658" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>180</v>
+      </c>
+      <c r="B659" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660"/>
+      <c r="B660" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>182</v>
+      </c>
+      <c r="B661" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>183</v>
+      </c>
+      <c r="B662" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>184</v>
+      </c>
+      <c r="B663" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664"/>
+      <c r="B664" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>183</v>
+      </c>
+      <c r="B665" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666"/>
+      <c r="B666" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667"/>
+      <c r="B667" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>180</v>
+      </c>
+      <c r="B668" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>185</v>
+      </c>
+      <c r="B669" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670"/>
+      <c r="B670" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>183</v>
+      </c>
+      <c r="B671" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>186</v>
+      </c>
+      <c r="B672" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>180</v>
+      </c>
+      <c r="B673" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>187</v>
+      </c>
+      <c r="B674" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>188</v>
+      </c>
+      <c r="B675" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>189</v>
+      </c>
+      <c r="B676" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677"/>
+      <c r="B677" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678"/>
+      <c r="B678" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679"/>
+      <c r="B679" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>187</v>
+      </c>
+      <c r="B680" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681"/>
+      <c r="B681" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682"/>
+      <c r="B682" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>190</v>
+      </c>
+      <c r="B683" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684"/>
+      <c r="B684" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>192</v>
+      </c>
+      <c r="B685" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686"/>
+      <c r="B686" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687"/>
+      <c r="B687" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>21</v>
+      </c>
+      <c r="B688" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689"/>
+      <c r="B689" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690"/>
+      <c r="B690" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691"/>
+      <c r="B691" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692"/>
+      <c r="B692" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693"/>
+      <c r="B693" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694"/>
+      <c r="B694" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695"/>
+      <c r="B695" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696"/>
+      <c r="B696" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697"/>
+      <c r="B697" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698"/>
+      <c r="B698" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>195</v>
+      </c>
+      <c r="B699" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>196</v>
+      </c>
+      <c r="B700" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>198</v>
+      </c>
+      <c r="B701" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>198</v>
+      </c>
+      <c r="B702" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703"/>
+      <c r="B703" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704"/>
+      <c r="B704" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>201</v>
+      </c>
+      <c r="B705" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>201</v>
+      </c>
+      <c r="B706" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707"/>
+      <c r="B707" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>201</v>
+      </c>
+      <c r="B708" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>204</v>
+      </c>
+      <c r="B709" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>204</v>
+      </c>
+      <c r="B710" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711"/>
+      <c r="B711" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712"/>
+      <c r="B712" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713"/>
+      <c r="B713" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714"/>
+      <c r="B714" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715"/>
+      <c r="B715" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716"/>
+      <c r="B716" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717"/>
+      <c r="B717" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718"/>
+      <c r="B718" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719"/>
+      <c r="B719" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720"/>
+      <c r="B720" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721"/>
+      <c r="B721" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722"/>
+      <c r="B722" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723"/>
+      <c r="B723" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724"/>
+      <c r="B724" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725"/>
+      <c r="B725" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726"/>
+      <c r="B726" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>6</v>
+      </c>
+      <c r="B727"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>6</v>
+      </c>
+      <c r="B728"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>6</v>
+      </c>
+      <c r="B729"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>6</v>
+      </c>
+      <c r="B730"/>
+    </row>
+    <row r="731">
+      <c r="A731"/>
+      <c r="B731"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>6</v>
+      </c>
+      <c r="B732"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>9</v>
+      </c>
+      <c r="B733"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>218</v>
+      </c>
+      <c r="B734"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>11</v>
+      </c>
+      <c r="B735"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>2</v>
+      </c>
+      <c r="B736"/>
+    </row>
+    <row r="737">
+      <c r="A737"/>
+      <c r="B737"/>
+    </row>
+    <row r="738">
+      <c r="A738"/>
+      <c r="B738"/>
+    </row>
+    <row r="739">
+      <c r="A739"/>
+      <c r="B739"/>
+    </row>
+    <row r="740">
+      <c r="A740"/>
+      <c r="B740"/>
+    </row>
+    <row r="741">
+      <c r="A741"/>
+      <c r="B741"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>42</v>
+      </c>
+      <c r="B742"/>
+    </row>
+    <row r="743">
+      <c r="A743"/>
+      <c r="B743"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>219</v>
+      </c>
+      <c r="B744"/>
+    </row>
+    <row r="745">
+      <c r="A745"/>
+      <c r="B745"/>
+    </row>
+    <row r="746">
+      <c r="A746"/>
+      <c r="B746"/>
+    </row>
+    <row r="747">
+      <c r="A747"/>
+      <c r="B747"/>
+    </row>
+    <row r="748">
+      <c r="A748"/>
+      <c r="B748"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>12</v>
+      </c>
+      <c r="B749"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>220</v>
+      </c>
+      <c r="B750"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>8</v>
+      </c>
+      <c r="B751"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>6</v>
+      </c>
+      <c r="B752"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>6</v>
+      </c>
+      <c r="B753"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>6</v>
+      </c>
+      <c r="B754"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>6</v>
+      </c>
+      <c r="B755"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>4</v>
+      </c>
+      <c r="B756"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>2</v>
+      </c>
+      <c r="B757"/>
+    </row>
+    <row r="758">
+      <c r="A758"/>
+      <c r="B758"/>
+    </row>
+    <row r="759">
+      <c r="A759"/>
+      <c r="B759"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>2</v>
+      </c>
+      <c r="B760"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>2</v>
+      </c>
+      <c r="B761"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>2</v>
+      </c>
+      <c r="B762"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>153</v>
+      </c>
+      <c r="B763"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>221</v>
+      </c>
+      <c r="B764"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>222</v>
+      </c>
+      <c r="B765"/>
+    </row>
+    <row r="766">
+      <c r="A766"/>
+      <c r="B766"/>
+    </row>
+    <row r="767">
+      <c r="A767"/>
+      <c r="B767"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>223</v>
+      </c>
+      <c r="B768"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>223</v>
+      </c>
+      <c r="B769"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>223</v>
+      </c>
+      <c r="B770"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>223</v>
+      </c>
+      <c r="B771"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>223</v>
+      </c>
+      <c r="B772"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>223</v>
+      </c>
+      <c r="B773"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>2</v>
+      </c>
+      <c r="B774"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>12</v>
+      </c>
+      <c r="B775"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>2</v>
+      </c>
+      <c r="B776"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>224</v>
+      </c>
+      <c r="B777"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>224</v>
+      </c>
+      <c r="B778"/>
+    </row>
+    <row r="779">
+      <c r="A779"/>
+      <c r="B779"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>224</v>
+      </c>
+      <c r="B780"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>224</v>
+      </c>
+      <c r="B781"/>
+    </row>
+    <row r="782">
+      <c r="A782"/>
+      <c r="B782"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>224</v>
+      </c>
+      <c r="B783"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>225</v>
+      </c>
+      <c r="B784"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>225</v>
+      </c>
+      <c r="B785"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>12</v>
+      </c>
+      <c r="B786"/>
+    </row>
+    <row r="787">
+      <c r="A787"/>
+      <c r="B787"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>112</v>
+      </c>
+      <c r="B788"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>8</v>
+      </c>
+      <c r="B789"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>12</v>
+      </c>
+      <c r="B790"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>12</v>
+      </c>
+      <c r="B791"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>8</v>
+      </c>
+      <c r="B792"/>
+    </row>
+    <row r="793">
+      <c r="A793"/>
+      <c r="B793"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>8</v>
+      </c>
+      <c r="B794"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>8</v>
+      </c>
+      <c r="B795"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>4</v>
+      </c>
+      <c r="B796"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>226</v>
+      </c>
+      <c r="B797"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>227</v>
+      </c>
+      <c r="B798"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>112</v>
+      </c>
+      <c r="B799"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>228</v>
+      </c>
+      <c r="B800"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>8</v>
+      </c>
+      <c r="B801"/>
+    </row>
+    <row r="802">
+      <c r="A802"/>
+      <c r="B802"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>8</v>
+      </c>
+      <c r="B803"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>229</v>
+      </c>
+      <c r="B804"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>112</v>
+      </c>
+      <c r="B805"/>
+    </row>
+    <row r="806">
+      <c r="A806"/>
+      <c r="B806"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>4</v>
+      </c>
+      <c r="B807"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>5</v>
+      </c>
+      <c r="B808"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>230</v>
+      </c>
+      <c r="B809"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>230</v>
+      </c>
+      <c r="B810"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>230</v>
+      </c>
+      <c r="B811"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>231</v>
+      </c>
+      <c r="B812"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>8</v>
+      </c>
+      <c r="B813"/>
+    </row>
+    <row r="814">
+      <c r="A814"/>
+      <c r="B814"/>
+    </row>
+    <row r="815">
+      <c r="A815"/>
+      <c r="B815"/>
+    </row>
+    <row r="816">
+      <c r="A816"/>
+      <c r="B816"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>2</v>
+      </c>
+      <c r="B817"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>12</v>
+      </c>
+      <c r="B818"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>224</v>
+      </c>
+      <c r="B819"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>2</v>
+      </c>
+      <c r="B820"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>4</v>
+      </c>
+      <c r="B821"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>224</v>
+      </c>
+      <c r="B822"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>218</v>
+      </c>
+      <c r="B823"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>11</v>
+      </c>
+      <c r="B824"/>
+    </row>
+    <row r="825">
+      <c r="A825"/>
+      <c r="B825"/>
+    </row>
+    <row r="826">
+      <c r="A826"/>
+      <c r="B826"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>112</v>
+      </c>
+      <c r="B827"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>218</v>
+      </c>
+      <c r="B828"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>112</v>
+      </c>
+      <c r="B829"/>
+    </row>
+    <row r="830">
+      <c r="A830"/>
+      <c r="B830"/>
+    </row>
+    <row r="831">
+      <c r="A831"/>
+      <c r="B831"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>12</v>
+      </c>
+      <c r="B832"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>7</v>
+      </c>
+      <c r="B833"/>
+    </row>
+    <row r="834">
+      <c r="A834"/>
+      <c r="B834"/>
+    </row>
+    <row r="835">
+      <c r="A835"/>
+      <c r="B835"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>224</v>
+      </c>
+      <c r="B836"/>
+    </row>
+    <row r="837">
+      <c r="A837"/>
+      <c r="B837"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>232</v>
+      </c>
+      <c r="B838"/>
+    </row>
+    <row r="839">
+      <c r="A839"/>
+      <c r="B839"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>218</v>
+      </c>
+      <c r="B840"/>
+    </row>
+    <row r="841">
+      <c r="A841"/>
+      <c r="B841"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>2</v>
+      </c>
+      <c r="B842"/>
+    </row>
+    <row r="843">
+      <c r="A843"/>
+      <c r="B843"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>2</v>
+      </c>
+      <c r="B844"/>
+    </row>
+    <row r="845">
+      <c r="A845"/>
+      <c r="B845"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>221</v>
+      </c>
+      <c r="B846"/>
+    </row>
+    <row r="847">
+      <c r="A847"/>
+      <c r="B847"/>
+    </row>
+    <row r="848">
+      <c r="A848"/>
+      <c r="B848"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>9</v>
+      </c>
+      <c r="B849"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>4</v>
+      </c>
+      <c r="B850"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>233</v>
+      </c>
+      <c r="B851"/>
+    </row>
+    <row r="852">
+      <c r="A852"/>
+      <c r="B852"/>
+    </row>
+    <row r="853">
+      <c r="A853"/>
+      <c r="B853"/>
+    </row>
+    <row r="854">
+      <c r="A854"/>
+      <c r="B854"/>
+    </row>
+    <row r="855">
+      <c r="A855"/>
+      <c r="B855"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>234</v>
+      </c>
+      <c r="B856"/>
+    </row>
+    <row r="857">
+      <c r="A857"/>
+      <c r="B857"/>
+    </row>
+    <row r="858">
+      <c r="A858"/>
+      <c r="B858"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>5</v>
+      </c>
+      <c r="B859"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>235</v>
+      </c>
+      <c r="B860"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>112</v>
+      </c>
+      <c r="B861"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>236</v>
+      </c>
+      <c r="B862"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>224</v>
+      </c>
+      <c r="B863"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/talks/20250824/reg3.xlsx
+++ b/talks/20250824/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -20,390 +20,393 @@
     <t xml:space="preserve">country2</t>
   </si>
   <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bristol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Warwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King's College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Manchester</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Cambridge</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Warwick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bristol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Manchester</t>
+    <t xml:space="preserve">University Hospital Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Zurich</t>
   </si>
   <si>
     <t xml:space="preserve">Roche</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novartis</t>
+    <t xml:space="preserve">University of Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finc Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson and Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merck KGaA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytel</t>
   </si>
   <si>
     <t xml:space="preserve">GSK</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson and Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Hospital Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPFL</t>
+    <t xml:space="preserve">Swiss TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cencora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator Switzerland (Swissmedic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md-clinicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfasigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardio Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedrich Miescher Institute For Biomedical Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCONIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idorsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bordeaux</t>
   </si>
   <si>
     <t xml:space="preserve">Ironwood</t>
   </si>
   <si>
-    <t xml:space="preserve">BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardio Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss TPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulator Switzerland (Swissmedic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idorsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfasigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCONIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck KGaA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finc Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bordeaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cencora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedrich Miescher Institute For Biomedical Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md-clinicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dww</t>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Paris City Inserm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argenx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris Brain Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR INSERM NOUVELLE AQUITAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFB Biotechnologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Paris-Saclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saryga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Paris City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulm University</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">RWTH Aachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKFZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA Germany (IQWiG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datamap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasso plattner Institute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boehringer Ingelheim</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Freiburg</t>
+    <t xml:space="preserve">Staburo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Willmar Schwabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Goettingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannover Medical School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbbVie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Mainz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Rostock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charite Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuitive Surgical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogitars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Augsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leipzig</t>
   </si>
   <si>
     <t xml:space="preserve">University of Greifswald</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Leipzig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulm University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannover Medical School</t>
+    <t xml:space="preserve">University of Bochum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Waterloo</t>
   </si>
   <si>
     <t xml:space="preserve">Bayer</t>
   </si>
   <si>
-    <t xml:space="preserve">DKFZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Heidelberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staburo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charite Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Augsburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inuitive Surgical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasso plattner Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogitars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanofi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Rostock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA Germany (IQWiG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWTH Aachen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TU Munich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Goettingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Mainz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbbVie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Willmar Schwabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMU Munich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bochum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Waterloo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris Brain Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Paris City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFB Biotechnologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Paris City Inserm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Paris-Saclay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saryga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogitamen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argenx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR INSERM NOUVELLE AQUITAINE</t>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Hutchinson Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacira Biosciences Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle Therapeutics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer</t>
   </si>
   <si>
     <t xml:space="preserve">Medtronic</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred Hutchinson Cancer Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicycle Therapeutics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacira Biosciences Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo Clinic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Novo Nordisk</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">University Of Copenhagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lundbeck</t>
   </si>
   <si>
-    <t xml:space="preserve">University Of Copenhagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Southern Denmark</t>
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">LSHTM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spanish National Cancer Research Centre</t>
   </si>
   <si>
+    <t xml:space="preserve">Vall D'hebron Institute Of Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eupla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Galdakao-Usansolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital Galdakao-Usansolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vall D'hebron Institute Of Oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSHTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupla</t>
+    <t xml:space="preserve">University of Chiang Mai</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Chiang Mai</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Mahidol</t>
   </si>
   <si>
+    <t xml:space="preserve">Radboud MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leiden University Medical Center</t>
   </si>
   <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radboud MC</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Amsterdam</t>
   </si>
   <si>
     <t xml:space="preserve">Merus</t>
   </si>
   <si>
+    <t xml:space="preserve">Maastricht University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Groningen</t>
+  </si>
+  <si>
     <t xml:space="preserve">ErasmusMC</t>
   </si>
   <si>
+    <t xml:space="preserve">Danone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regulator Netherlands (CBG-MEB)</t>
   </si>
   <si>
-    <t xml:space="preserve">Maastricht University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Groningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Stavanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Haukeland</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Stavanger</t>
-  </si>
-  <si>
     <t xml:space="preserve">China</t>
   </si>
   <si>
@@ -413,61 +416,64 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Ghent University</t>
+  </si>
+  <si>
     <t xml:space="preserve">EORTC</t>
   </si>
   <si>
+    <t xml:space="preserve">IDDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hasselt University</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghent University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDDI</t>
+    <t xml:space="preserve">NHO Nagoya Medical Center</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Statcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Kyoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Osaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daiichi Sankyo</t>
   </si>
   <si>
+    <t xml:space="preserve">Center For Medical Statistics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chugai</t>
   </si>
   <si>
-    <t xml:space="preserve">Statcom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center For Medical Statistics</t>
+    <t xml:space="preserve">Tetsuyu Clinical Research Center</t>
   </si>
   <si>
     <t xml:space="preserve">Kaken Pharma</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Kyoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Osaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHO Nagoya Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuyu Clinical Research Center</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Vienna</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
+    <t xml:space="preserve">Medical University of Graz</t>
   </si>
   <si>
     <t xml:space="preserve">MED-EL</t>
@@ -476,27 +482,27 @@
     <t xml:space="preserve">Medical University of Vienna</t>
   </si>
   <si>
+    <t xml:space="preserve">University Of Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macquarie University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monash University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Children's Research Institute</t>
+  </si>
+  <si>
     <t xml:space="preserve">University Of Sydney</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macquarie University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monash University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Melbourne</t>
-  </si>
-  <si>
     <t xml:space="preserve">MCRI</t>
   </si>
   <si>
-    <t xml:space="preserve">Murdoch Children's Research Institute</t>
-  </si>
-  <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
@@ -515,12 +521,12 @@
     <t xml:space="preserve">University of Rome</t>
   </si>
   <si>
+    <t xml:space="preserve">University Milano (Bicocca)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Politecnico di Milano</t>
   </si>
   <si>
-    <t xml:space="preserve">University Milano (Bicocca)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aptuit</t>
   </si>
   <si>
@@ -530,199 +536,214 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">iOMEDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolinska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chungnam National University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Ulsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Center Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewha Womans University Mokdong Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asan Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konkuk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewha Womans University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dongguk University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Population And Health Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Lucknow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tartu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedeon Richter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Galway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of the Free State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Academy of Science</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">iOMEDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolinska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AstraZeneca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of the Free State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asan Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konkuk University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chungnam National University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Cancer Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ewha Womans University Mokdong Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongguk University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ewha Womans University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Ulsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Cancer Center Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Population And Health Research Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Lucknow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Academy of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedeon Richter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Galway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
   </si>
   <si>
     <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Tartu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Sheffield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaceuticals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Exeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department tropical Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Southampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The University of Manchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute Of Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham</t>
   </si>
   <si>
     <t xml:space="preserve">University of Oxford</t>
   </si>
   <si>
+    <t xml:space="preserve">Alan turing Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">London School of Hygiene and Tropical Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Department tropical Medical</t>
+    <t xml:space="preserve">University of Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bath</t>
   </si>
   <si>
     <t xml:space="preserve">Phastar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute Of Cancer Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Birmingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Exeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan turing Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Sheffield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperial College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The University of Manchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reckitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaceuticals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Southampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Edinburgh</t>
   </si>
 </sst>
 </file>
@@ -1063,288 +1084,280 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2"/>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19"/>
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1352,7 +1365,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1360,22 +1373,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
+      <c r="A41"/>
       <c r="B41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1403,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1398,7 +1411,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1406,7 +1419,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1414,39 +1427,35 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
+      <c r="A48"/>
       <c r="B48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
+      <c r="A50"/>
       <c r="B50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -1454,7 +1463,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1462,7 +1471,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1470,7 +1479,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1478,7 +1487,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -1486,7 +1495,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1494,7 +1503,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1510,7 +1519,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1532,7 +1541,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -1540,7 +1549,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -1548,23 +1557,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
+      <c r="A65"/>
       <c r="B65" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -1572,7 +1579,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -1588,7 +1595,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -1596,7 +1603,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -1604,7 +1611,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -1612,7 +1619,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -1620,7 +1627,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -1628,7 +1635,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -1636,7 +1643,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -1644,7 +1651,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -1652,7 +1659,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -1660,7 +1667,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -1668,7 +1675,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -1676,7 +1683,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -1684,29 +1691,29 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82"/>
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>11</v>
-      </c>
+      <c r="A83"/>
       <c r="B83" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -1714,7 +1721,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -1722,7 +1729,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -1738,7 +1745,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -1746,7 +1753,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -1754,23 +1761,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
+      <c r="A91"/>
       <c r="B91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -1778,21 +1783,23 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94"/>
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -1800,7 +1807,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -1808,37 +1815,37 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
+      <c r="A98"/>
       <c r="B98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100"/>
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -1846,7 +1853,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -1859,14 +1866,16 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104"/>
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -1874,7 +1883,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -1882,7 +1891,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -1898,7 +1907,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -1914,21 +1923,23 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112"/>
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -1950,7 +1961,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -1958,7 +1969,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -1966,7 +1977,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -1982,7 +1993,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -1990,7 +2001,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -1998,7 +2009,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -2006,7 +2017,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -2014,23 +2025,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
+      <c r="A125"/>
       <c r="B125" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -2038,7 +2047,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -2046,7 +2055,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -2054,59 +2063,55 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s">
-        <v>18</v>
-      </c>
+      <c r="A130"/>
       <c r="B130" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s">
-        <v>18</v>
-      </c>
+      <c r="A131"/>
       <c r="B131" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132"/>
+      <c r="A132" t="s">
+        <v>28</v>
+      </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
+      <c r="A133"/>
       <c r="B133" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134"/>
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
+      <c r="A135"/>
       <c r="B135" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -2114,7 +2119,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -2122,7 +2127,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -2130,7 +2135,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -2138,7 +2143,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -2146,7 +2151,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -2154,7 +2159,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -2162,7 +2167,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -2170,23 +2175,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
+      <c r="A145"/>
       <c r="B145" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -2209,14 +2212,16 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149"/>
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -2224,7 +2229,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -2232,7 +2237,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -2240,7 +2245,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -2248,7 +2253,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -2256,27 +2261,31 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156"/>
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157"/>
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
       <c r="B157" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -2284,7 +2293,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -2298,36 +2307,38 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162"/>
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
       <c r="B162" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s">
-        <v>9</v>
-      </c>
+      <c r="A163"/>
       <c r="B163" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165"/>
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
@@ -2341,94 +2352,96 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167"/>
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168"/>
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
       <c r="B168" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>14</v>
-      </c>
+      <c r="A170"/>
       <c r="B170" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>40</v>
-      </c>
+      <c r="A172"/>
       <c r="B172" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173"/>
+      <c r="A173" t="s">
+        <v>28</v>
+      </c>
       <c r="B173" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>34</v>
-      </c>
+      <c r="A174"/>
       <c r="B174" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
-        <v>18</v>
-      </c>
+      <c r="A176"/>
       <c r="B176" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177"/>
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178"/>
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -2436,7 +2449,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -2444,21 +2457,23 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182"/>
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -2466,7 +2481,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -2474,214 +2489,210 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s">
-        <v>9</v>
-      </c>
+      <c r="A186"/>
       <c r="B186" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s">
-        <v>11</v>
-      </c>
+      <c r="A187"/>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>45</v>
-      </c>
+      <c r="A188"/>
       <c r="B188" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s">
-        <v>45</v>
-      </c>
+      <c r="A189"/>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s">
-        <v>46</v>
-      </c>
+      <c r="A192"/>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>50</v>
-      </c>
+      <c r="A199"/>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
       <c r="A201"/>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202"/>
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
       <c r="B202" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
-        <v>54</v>
-      </c>
+      <c r="A207"/>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208"/>
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209"/>
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
       <c r="B209" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210"/>
+      <c r="A210" t="s">
+        <v>21</v>
+      </c>
       <c r="B210" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212"/>
+      <c r="A212" t="s">
+        <v>41</v>
+      </c>
       <c r="B212" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -2691,16 +2702,14 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s">
-        <v>53</v>
-      </c>
+      <c r="A214"/>
       <c r="B214" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B215" t="s">
         <v>44</v>
@@ -2708,23 +2717,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
-        <v>52</v>
-      </c>
+      <c r="A217"/>
       <c r="B217" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B218" t="s">
         <v>44</v>
@@ -2737,16 +2744,14 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s">
-        <v>57</v>
-      </c>
+      <c r="A220"/>
       <c r="B220" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B221" t="s">
         <v>44</v>
@@ -2754,7 +2759,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
         <v>44</v>
@@ -2762,14 +2767,16 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224"/>
+      <c r="A224" t="s">
+        <v>47</v>
+      </c>
       <c r="B224" t="s">
         <v>44</v>
       </c>
@@ -2787,25 +2794,21 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s">
-        <v>52</v>
-      </c>
+      <c r="A227"/>
       <c r="B227" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
-        <v>60</v>
-      </c>
+      <c r="A229"/>
       <c r="B229" t="s">
         <v>44</v>
       </c>
@@ -2817,23 +2820,21 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s">
-        <v>61</v>
-      </c>
+      <c r="A231"/>
       <c r="B231" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s">
-        <v>62</v>
-      </c>
+      <c r="A232"/>
       <c r="B232" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233"/>
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
       <c r="B233" t="s">
         <v>44</v>
       </c>
@@ -2846,7 +2847,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B235" t="s">
         <v>44</v>
@@ -2854,23 +2855,21 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s">
-        <v>63</v>
-      </c>
+      <c r="A237"/>
       <c r="B237" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B238" t="s">
         <v>44</v>
@@ -2884,7 +2883,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B240" t="s">
         <v>44</v>
@@ -2892,21 +2891,23 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242"/>
+      <c r="A242" t="s">
+        <v>28</v>
+      </c>
       <c r="B242" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
         <v>44</v>
@@ -2914,7 +2915,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B244" t="s">
         <v>44</v>
@@ -2928,7 +2929,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B246" t="s">
         <v>44</v>
@@ -2941,23 +2942,21 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s">
-        <v>46</v>
-      </c>
+      <c r="A248"/>
       <c r="B248" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s">
-        <v>66</v>
-      </c>
+      <c r="A249"/>
       <c r="B249" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250"/>
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
       <c r="B250" t="s">
         <v>44</v>
       </c>
@@ -2969,7 +2968,9 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252"/>
+      <c r="A252" t="s">
+        <v>45</v>
+      </c>
       <c r="B252" t="s">
         <v>44</v>
       </c>
@@ -2981,79 +2982,83 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s">
-        <v>17</v>
-      </c>
+      <c r="A254"/>
       <c r="B254" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255"/>
+      <c r="A255" t="s">
+        <v>13</v>
+      </c>
       <c r="B255" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B256" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257"/>
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
       <c r="B257" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s">
-        <v>67</v>
-      </c>
+      <c r="A258"/>
       <c r="B258" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B259" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260"/>
+      <c r="A260" t="s">
+        <v>56</v>
+      </c>
       <c r="B260" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B261" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262"/>
+      <c r="A262" t="s">
+        <v>45</v>
+      </c>
       <c r="B262" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s">
-        <v>69</v>
-      </c>
+      <c r="A263"/>
       <c r="B263" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264"/>
+      <c r="A264" t="s">
+        <v>47</v>
+      </c>
       <c r="B264" t="s">
         <v>44</v>
       </c>
@@ -3066,3733 +3071,3821 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267"/>
+      <c r="A267" t="s">
+        <v>54</v>
+      </c>
       <c r="B267" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268"/>
+      <c r="A268" t="s">
+        <v>57</v>
+      </c>
       <c r="B268" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s">
-        <v>70</v>
-      </c>
+      <c r="A269"/>
       <c r="B269" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s">
-        <v>71</v>
-      </c>
+      <c r="A270"/>
       <c r="B270" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s">
-        <v>72</v>
-      </c>
+      <c r="A271"/>
       <c r="B271" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s">
-        <v>73</v>
-      </c>
+      <c r="A272"/>
       <c r="B272" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s">
-        <v>68</v>
-      </c>
+      <c r="A274"/>
       <c r="B274" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s">
-        <v>75</v>
-      </c>
+      <c r="A275"/>
       <c r="B275" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s">
-        <v>46</v>
-      </c>
+      <c r="A276"/>
       <c r="B276" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s">
-        <v>49</v>
-      </c>
+      <c r="A277"/>
       <c r="B277" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s">
-        <v>76</v>
-      </c>
+      <c r="A278"/>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279"/>
+      <c r="A279" t="s">
+        <v>24</v>
+      </c>
       <c r="B279" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B280" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s">
-        <v>79</v>
-      </c>
+      <c r="A281"/>
       <c r="B281" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s">
-        <v>76</v>
-      </c>
+      <c r="A282"/>
       <c r="B282" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B283" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s">
-        <v>78</v>
-      </c>
+      <c r="A284"/>
       <c r="B284" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>21</v>
-      </c>
+      <c r="A285"/>
       <c r="B285" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>81</v>
-      </c>
+      <c r="A286"/>
       <c r="B286" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s">
-        <v>81</v>
-      </c>
+      <c r="A287"/>
       <c r="B287" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B288" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289"/>
+      <c r="A289" t="s">
+        <v>22</v>
+      </c>
       <c r="B289" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290">
       <c r="A290"/>
       <c r="B290" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B291" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="292">
       <c r="A292"/>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s">
-        <v>84</v>
-      </c>
+      <c r="A293"/>
       <c r="B293" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294"/>
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
       <c r="B294" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s">
-        <v>81</v>
-      </c>
+      <c r="A295"/>
       <c r="B295" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296"/>
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
       <c r="B296" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297">
       <c r="A297"/>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B298" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299"/>
+      <c r="A299" t="s">
+        <v>60</v>
+      </c>
       <c r="B299" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B300" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s">
-        <v>81</v>
-      </c>
+      <c r="A301"/>
       <c r="B301" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302"/>
+      <c r="A302" t="s">
+        <v>62</v>
+      </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303"/>
+      <c r="A303" t="s">
+        <v>61</v>
+      </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304"/>
+      <c r="A304" t="s">
+        <v>61</v>
+      </c>
       <c r="B304" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B305" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306"/>
+      <c r="A306" t="s">
+        <v>64</v>
+      </c>
       <c r="B306" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307"/>
+      <c r="A307" t="s">
+        <v>65</v>
+      </c>
       <c r="B307" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s">
-        <v>21</v>
-      </c>
+      <c r="A308"/>
       <c r="B308" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309">
       <c r="A309"/>
       <c r="B309" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s">
-        <v>78</v>
-      </c>
+      <c r="A310"/>
       <c r="B310" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s">
-        <v>78</v>
-      </c>
+      <c r="A311"/>
       <c r="B311" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312">
       <c r="A312"/>
       <c r="B312" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313"/>
+      <c r="A313" t="s">
+        <v>61</v>
+      </c>
       <c r="B313" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B314" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315"/>
+      <c r="A315" t="s">
+        <v>67</v>
+      </c>
       <c r="B315" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316">
       <c r="A316"/>
       <c r="B316" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317"/>
+      <c r="A317" t="s">
+        <v>68</v>
+      </c>
       <c r="B317" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s">
-        <v>81</v>
-      </c>
+      <c r="A318"/>
       <c r="B318" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B319" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320"/>
+      <c r="A320" t="s">
+        <v>70</v>
+      </c>
       <c r="B320" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s">
-        <v>86</v>
-      </c>
+      <c r="A321"/>
       <c r="B321" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322">
       <c r="A322"/>
       <c r="B322" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323">
       <c r="A323"/>
       <c r="B323" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="324">
       <c r="A324"/>
       <c r="B324" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B325" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326"/>
+      <c r="A326" t="s">
+        <v>67</v>
+      </c>
       <c r="B326" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B327" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328"/>
+      <c r="A328" t="s">
+        <v>61</v>
+      </c>
       <c r="B328" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329"/>
+      <c r="A329" t="s">
+        <v>73</v>
+      </c>
       <c r="B329" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330"/>
+      <c r="A330" t="s">
+        <v>67</v>
+      </c>
       <c r="B330" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331"/>
+      <c r="A331" t="s">
+        <v>74</v>
+      </c>
       <c r="B331" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s">
-        <v>81</v>
-      </c>
+      <c r="A332"/>
       <c r="B332" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B333" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B334" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B335" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B336" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B337" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338"/>
+      <c r="A338" t="s">
+        <v>76</v>
+      </c>
       <c r="B338" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s">
-        <v>88</v>
-      </c>
+      <c r="A339"/>
       <c r="B339" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340">
       <c r="A340"/>
       <c r="B340" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341"/>
+      <c r="B341" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342"/>
+      <c r="B342" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>81</v>
-      </c>
-      <c r="B341" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>9</v>
-      </c>
-      <c r="B342" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343"/>
       <c r="B343" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="344">
       <c r="A344"/>
       <c r="B344" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345"/>
+      <c r="A345" t="s">
+        <v>78</v>
+      </c>
       <c r="B345" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346"/>
+      <c r="A346" t="s">
+        <v>79</v>
+      </c>
       <c r="B346" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347"/>
+      <c r="A347" t="s">
+        <v>29</v>
+      </c>
       <c r="B347" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348"/>
+      <c r="A348" t="s">
+        <v>36</v>
+      </c>
       <c r="B348" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349"/>
+      <c r="A349" t="s">
+        <v>58</v>
+      </c>
       <c r="B349" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s">
-        <v>89</v>
-      </c>
+      <c r="A350"/>
       <c r="B350" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352"/>
+      <c r="A352" t="s">
+        <v>72</v>
+      </c>
       <c r="B352" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353"/>
+      <c r="A353" t="s">
+        <v>80</v>
+      </c>
       <c r="B353" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="354">
       <c r="A354"/>
       <c r="B354" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s">
-        <v>84</v>
-      </c>
+      <c r="A355"/>
       <c r="B355" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356"/>
+      <c r="A356" t="s">
+        <v>61</v>
+      </c>
       <c r="B356" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357"/>
+      <c r="A357" t="s">
+        <v>81</v>
+      </c>
       <c r="B357" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s">
-        <v>18</v>
-      </c>
+      <c r="A358"/>
       <c r="B358" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B359" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B360" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361"/>
+      <c r="A361" t="s">
+        <v>61</v>
+      </c>
       <c r="B361" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B362" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s">
-        <v>93</v>
-      </c>
+      <c r="A363"/>
       <c r="B363" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B364" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B365" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s">
-        <v>95</v>
-      </c>
+      <c r="A366"/>
       <c r="B366" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B367" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s">
-        <v>76</v>
-      </c>
+      <c r="A368"/>
       <c r="B368" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369"/>
+      <c r="A369" t="s">
+        <v>67</v>
+      </c>
       <c r="B369" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s">
-        <v>92</v>
-      </c>
+      <c r="A370"/>
       <c r="B370" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371">
       <c r="A371"/>
       <c r="B371" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B372" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s">
-        <v>9</v>
-      </c>
+      <c r="A373"/>
       <c r="B373" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B374" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s">
-        <v>92</v>
-      </c>
+      <c r="A375"/>
       <c r="B375" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s">
-        <v>9</v>
-      </c>
+      <c r="A376"/>
       <c r="B376" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s">
-        <v>98</v>
-      </c>
+      <c r="A377"/>
       <c r="B377" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B378" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s">
-        <v>99</v>
-      </c>
+      <c r="A379"/>
       <c r="B379" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B380" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381"/>
+      <c r="A381" t="s">
+        <v>85</v>
+      </c>
       <c r="B381" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B382" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s">
-        <v>101</v>
-      </c>
+      <c r="A383"/>
       <c r="B383" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384"/>
+      <c r="A384" t="s">
+        <v>13</v>
+      </c>
       <c r="B384" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385"/>
+      <c r="A385" t="s">
+        <v>87</v>
+      </c>
       <c r="B385" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="386">
       <c r="A386"/>
       <c r="B386" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B387" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B388" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B390" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B391" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="392">
       <c r="A392"/>
       <c r="B392" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B393" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B394" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s">
-        <v>102</v>
-      </c>
+      <c r="A395"/>
       <c r="B395" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s">
-        <v>106</v>
-      </c>
+      <c r="A396"/>
       <c r="B396" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s">
-        <v>102</v>
-      </c>
+      <c r="A397"/>
       <c r="B397" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s">
-        <v>105</v>
-      </c>
+      <c r="A398"/>
       <c r="B398" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399"/>
+      <c r="A399" t="s">
+        <v>48</v>
+      </c>
       <c r="B399" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400"/>
+      <c r="A400" t="s">
+        <v>92</v>
+      </c>
       <c r="B400" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B401" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402"/>
+      <c r="A402" t="s">
+        <v>94</v>
+      </c>
       <c r="B402" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B403" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404"/>
+      <c r="A404" t="s">
+        <v>96</v>
+      </c>
       <c r="B404" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405"/>
+      <c r="A405" t="s">
+        <v>13</v>
+      </c>
       <c r="B405" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="406">
       <c r="A406"/>
       <c r="B406" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B407" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B408" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s">
-        <v>110</v>
-      </c>
+      <c r="A409"/>
       <c r="B409" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B410" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411"/>
+      <c r="A411" t="s">
+        <v>100</v>
+      </c>
       <c r="B411" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412"/>
+      <c r="A412" t="s">
+        <v>13</v>
+      </c>
       <c r="B412" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413"/>
+      <c r="A413" t="s">
+        <v>101</v>
+      </c>
       <c r="B413" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414"/>
+      <c r="A414" t="s">
+        <v>95</v>
+      </c>
       <c r="B414" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="415">
       <c r="A415"/>
       <c r="B415" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="416">
       <c r="A416"/>
       <c r="B416" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s">
-        <v>112</v>
-      </c>
+      <c r="A417"/>
       <c r="B417" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418"/>
+      <c r="A418" t="s">
+        <v>94</v>
+      </c>
       <c r="B418" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419"/>
+      <c r="A419" t="s">
+        <v>94</v>
+      </c>
       <c r="B419" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B420" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421"/>
+      <c r="A421" t="s">
+        <v>93</v>
+      </c>
       <c r="B421" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422"/>
+      <c r="A422" t="s">
+        <v>102</v>
+      </c>
       <c r="B422" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="423">
       <c r="A423"/>
       <c r="B423" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424"/>
+      <c r="A424" t="s">
+        <v>13</v>
+      </c>
       <c r="B424" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B425" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="426">
       <c r="A426"/>
       <c r="B426" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s">
-        <v>115</v>
-      </c>
+      <c r="A427"/>
       <c r="B427" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B428" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B429" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430"/>
+      <c r="A430" t="s">
+        <v>103</v>
+      </c>
       <c r="B430" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B431" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B432" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B433" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B434" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B435" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s">
-        <v>117</v>
-      </c>
+      <c r="A436"/>
       <c r="B436" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="s">
-        <v>12</v>
-      </c>
+      <c r="A437"/>
       <c r="B437" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B438" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B439" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B440" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="s">
-        <v>117</v>
-      </c>
+      <c r="A441"/>
       <c r="B441" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B442" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B443" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s">
-        <v>117</v>
-      </c>
+      <c r="A444"/>
       <c r="B444" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s">
-        <v>119</v>
-      </c>
+      <c r="A445"/>
       <c r="B445" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s">
-        <v>120</v>
-      </c>
+      <c r="A446"/>
       <c r="B446" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="s">
-        <v>120</v>
-      </c>
+      <c r="A447"/>
       <c r="B447" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B448" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="s">
-        <v>117</v>
-      </c>
+      <c r="A449"/>
       <c r="B449" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s">
-        <v>119</v>
-      </c>
+      <c r="A450"/>
       <c r="B450" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B451" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B452" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="s">
-        <v>121</v>
-      </c>
+      <c r="A453"/>
       <c r="B453" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="s">
-        <v>117</v>
-      </c>
+      <c r="A454"/>
       <c r="B454" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="s">
-        <v>119</v>
-      </c>
+      <c r="A455"/>
       <c r="B455" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s">
-        <v>119</v>
-      </c>
+      <c r="A456"/>
       <c r="B456" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s">
-        <v>122</v>
-      </c>
+      <c r="A457"/>
       <c r="B457" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B458" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B459" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="s">
-        <v>117</v>
-      </c>
+      <c r="A460"/>
       <c r="B460" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B461" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="462">
       <c r="A462"/>
       <c r="B462" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="463">
       <c r="A463"/>
       <c r="B463" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B464" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B465" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="s">
-        <v>117</v>
-      </c>
+      <c r="A466"/>
       <c r="B466" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B467" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="468">
       <c r="A468"/>
       <c r="B468" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B469" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B470" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B471" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472"/>
+      <c r="A472" t="s">
+        <v>117</v>
+      </c>
       <c r="B472" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473"/>
+      <c r="A473" t="s">
+        <v>117</v>
+      </c>
       <c r="B473" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B474" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B475" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
+        <v>120</v>
+      </c>
+      <c r="B476" t="s">
         <v>119</v>
-      </c>
-      <c r="B476" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B477" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B478" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B479" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
+        <v>120</v>
+      </c>
+      <c r="B480" t="s">
         <v>119</v>
       </c>
-      <c r="B480" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="481">
-      <c r="A481" t="s">
+      <c r="A481"/>
+      <c r="B481" t="s">
         <v>119</v>
-      </c>
-      <c r="B481" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
+        <v>118</v>
+      </c>
+      <c r="B482" t="s">
         <v>119</v>
       </c>
-      <c r="B482" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="483">
-      <c r="A483"/>
+      <c r="A483" t="s">
+        <v>120</v>
+      </c>
       <c r="B483" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B484" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>120</v>
+      </c>
+      <c r="B485" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>23</v>
+      </c>
+      <c r="B486" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="485">
-      <c r="A485"/>
-      <c r="B485" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486"/>
-      <c r="B486" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487"/>
       <c r="B487" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488"/>
+      <c r="A488" t="s">
+        <v>122</v>
+      </c>
       <c r="B488" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="s">
-        <v>128</v>
-      </c>
+      <c r="A489"/>
       <c r="B489" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B490" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="s">
-        <v>128</v>
-      </c>
+      <c r="A491"/>
       <c r="B491" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="B492" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B493" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494"/>
+      <c r="A494" t="s">
+        <v>120</v>
+      </c>
       <c r="B494" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495"/>
+      <c r="A495" t="s">
+        <v>121</v>
+      </c>
       <c r="B495" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496"/>
+      <c r="A496" t="s">
+        <v>121</v>
+      </c>
       <c r="B496" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B497" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498"/>
+      <c r="A498" t="s">
+        <v>124</v>
+      </c>
       <c r="B498" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="s">
-        <v>134</v>
-      </c>
+      <c r="A499"/>
       <c r="B499" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B500" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501"/>
+      <c r="A501" t="s">
+        <v>120</v>
+      </c>
       <c r="B501" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B502" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="s">
-        <v>133</v>
-      </c>
+      <c r="A503"/>
       <c r="B503" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504"/>
+      <c r="A504" t="s">
+        <v>118</v>
+      </c>
       <c r="B504" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B505" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B506" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B507" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B508" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B509" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B510" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B511" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="s">
-        <v>13</v>
-      </c>
+      <c r="A512"/>
       <c r="B512" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513"/>
+      <c r="A513" t="s">
+        <v>125</v>
+      </c>
       <c r="B513" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514"/>
+      <c r="A514" t="s">
+        <v>120</v>
+      </c>
       <c r="B514" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B515" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516"/>
+      <c r="A516" t="s">
+        <v>118</v>
+      </c>
       <c r="B516" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B517" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518"/>
+      <c r="A518" t="s">
+        <v>120</v>
+      </c>
       <c r="B518" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B519" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B520" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521"/>
+      <c r="A521" t="s">
+        <v>120</v>
+      </c>
       <c r="B521" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522"/>
+      <c r="A522" t="s">
+        <v>121</v>
+      </c>
       <c r="B522" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="s">
-        <v>138</v>
-      </c>
+      <c r="A523"/>
       <c r="B523" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B524" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="525">
       <c r="A525"/>
       <c r="B525" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="s">
-        <v>140</v>
-      </c>
+      <c r="A526"/>
       <c r="B526" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B527" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B528" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="529">
       <c r="A529"/>
       <c r="B529" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B530" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="531">
       <c r="A531"/>
       <c r="B531" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532"/>
+      <c r="A532" t="s">
+        <v>132</v>
+      </c>
       <c r="B532" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B533" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534"/>
+      <c r="A534" t="s">
+        <v>121</v>
+      </c>
       <c r="B534" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B535" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536"/>
+      <c r="A536" t="s">
+        <v>19</v>
+      </c>
       <c r="B536" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537"/>
+      <c r="A537" t="s">
+        <v>134</v>
+      </c>
       <c r="B537" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B538" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539"/>
+      <c r="A539" t="s">
+        <v>135</v>
+      </c>
       <c r="B539" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540"/>
+      <c r="A540" t="s">
+        <v>135</v>
+      </c>
       <c r="B540" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="541">
       <c r="A541"/>
       <c r="B541" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B542" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="543">
       <c r="A543"/>
       <c r="B543" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="544">
       <c r="A544"/>
       <c r="B544" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B545" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="546">
       <c r="A546"/>
       <c r="B546" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="547">
       <c r="A547"/>
       <c r="B547" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B548" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="549">
-      <c r="A549"/>
+      <c r="A549" t="s">
+        <v>19</v>
+      </c>
       <c r="B549" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B550" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="551">
       <c r="A551"/>
       <c r="B551" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="s">
-        <v>143</v>
-      </c>
+      <c r="A552"/>
       <c r="B552" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B553" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554"/>
+      <c r="A554" t="s">
+        <v>134</v>
+      </c>
       <c r="B554" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="555">
       <c r="A555"/>
       <c r="B555" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="s">
-        <v>135</v>
-      </c>
+      <c r="A556"/>
       <c r="B556" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B557" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="s">
-        <v>150</v>
-      </c>
+      <c r="A558"/>
       <c r="B558" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B559" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560"/>
+      <c r="A560" t="s">
+        <v>138</v>
+      </c>
       <c r="B560" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="561">
-      <c r="A561"/>
+      <c r="A561" t="s">
+        <v>140</v>
+      </c>
       <c r="B561" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B562" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="s">
-        <v>150</v>
-      </c>
+      <c r="A563"/>
       <c r="B563" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564"/>
+      <c r="A564" t="s">
+        <v>142</v>
+      </c>
       <c r="B564" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B565" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="s">
-        <v>150</v>
-      </c>
+      <c r="A566"/>
       <c r="B566" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="s">
-        <v>150</v>
-      </c>
+      <c r="A567"/>
       <c r="B567" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="568">
       <c r="A568"/>
       <c r="B568" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="569">
-      <c r="A569"/>
+      <c r="A569" t="s">
+        <v>144</v>
+      </c>
       <c r="B569" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="s">
-        <v>154</v>
-      </c>
+      <c r="A570"/>
       <c r="B570" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="571">
       <c r="A571"/>
       <c r="B571" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="572">
       <c r="A572"/>
       <c r="B572" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B573" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="574">
       <c r="A574"/>
       <c r="B574" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="s">
-        <v>157</v>
-      </c>
+      <c r="A575"/>
       <c r="B575" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="s">
-        <v>13</v>
-      </c>
+      <c r="A576"/>
       <c r="B576" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B577" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="578">
-      <c r="A578"/>
+      <c r="A578" t="s">
+        <v>142</v>
+      </c>
       <c r="B578" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="579">
       <c r="A579"/>
       <c r="B579" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B580" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B581" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="582">
       <c r="A582"/>
       <c r="B582" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="583">
       <c r="A583"/>
       <c r="B583" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="584">
       <c r="A584"/>
       <c r="B584" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="585">
       <c r="A585"/>
       <c r="B585" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="586">
-      <c r="A586"/>
+      <c r="A586" t="s">
+        <v>146</v>
+      </c>
       <c r="B586" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="587">
-      <c r="A587"/>
+      <c r="A587" t="s">
+        <v>147</v>
+      </c>
       <c r="B587" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="s">
-        <v>162</v>
-      </c>
+      <c r="A588"/>
       <c r="B588" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="B589" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="590">
       <c r="A590"/>
       <c r="B590" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="591">
       <c r="A591"/>
       <c r="B591" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="592">
       <c r="A592"/>
       <c r="B592" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="593">
       <c r="A593"/>
       <c r="B593" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B594" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B595" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596"/>
+      <c r="A596" t="s">
+        <v>67</v>
+      </c>
       <c r="B596" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="597">
       <c r="A597"/>
       <c r="B597" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598"/>
+      <c r="A598" t="s">
+        <v>152</v>
+      </c>
       <c r="B598" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="599">
-      <c r="A599"/>
+      <c r="A599" t="s">
+        <v>153</v>
+      </c>
       <c r="B599" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B600" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B601" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="602">
       <c r="A602"/>
       <c r="B602" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="603">
       <c r="A603"/>
       <c r="B603" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B604" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="s">
-        <v>167</v>
-      </c>
+      <c r="A605"/>
       <c r="B605" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606"/>
+      <c r="A606" t="s">
+        <v>152</v>
+      </c>
       <c r="B606" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B607" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="608">
-      <c r="A608"/>
+      <c r="A608" t="s">
+        <v>155</v>
+      </c>
       <c r="B608" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="s">
-        <v>166</v>
-      </c>
+      <c r="A609"/>
       <c r="B609" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="610">
-      <c r="A610"/>
+      <c r="A610" t="s">
+        <v>156</v>
+      </c>
       <c r="B610" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="611">
-      <c r="A611"/>
+      <c r="A611" t="s">
+        <v>158</v>
+      </c>
       <c r="B611" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="612">
       <c r="A612"/>
       <c r="B612" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B613" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="614">
       <c r="A614"/>
       <c r="B614" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="615">
-      <c r="A615"/>
+      <c r="A615" t="s">
+        <v>160</v>
+      </c>
       <c r="B615" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="s">
-        <v>30</v>
-      </c>
+      <c r="A616"/>
       <c r="B616" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="617">
-      <c r="A617" t="s">
-        <v>168</v>
-      </c>
+      <c r="A617"/>
       <c r="B617" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="618">
-      <c r="A618"/>
+      <c r="A618" t="s">
+        <v>161</v>
+      </c>
       <c r="B618" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="B619" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="s">
-        <v>168</v>
-      </c>
+      <c r="A620"/>
       <c r="B620" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="621">
       <c r="A621"/>
       <c r="B621" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622"/>
+      <c r="A622" t="s">
+        <v>162</v>
+      </c>
       <c r="B622" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" t="s">
-        <v>169</v>
-      </c>
+      <c r="A623"/>
       <c r="B623" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="624">
       <c r="A624"/>
       <c r="B624" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="B625" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626"/>
+      <c r="A626" t="s">
+        <v>164</v>
+      </c>
       <c r="B626" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="627">
       <c r="A627"/>
       <c r="B627" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="628">
       <c r="A628"/>
       <c r="B628" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="629">
       <c r="A629"/>
       <c r="B629" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="630">
       <c r="A630"/>
       <c r="B630" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="631">
       <c r="A631"/>
       <c r="B631" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="632">
       <c r="A632"/>
       <c r="B632" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="633">
       <c r="A633"/>
       <c r="B633" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="634">
       <c r="A634"/>
       <c r="B634" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B635" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636"/>
+      <c r="A636" t="s">
+        <v>165</v>
+      </c>
       <c r="B636" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="s">
-        <v>173</v>
-      </c>
+      <c r="A637"/>
       <c r="B637" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="638">
       <c r="A638"/>
       <c r="B638" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="B639" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640"/>
+      <c r="A640" t="s">
+        <v>169</v>
+      </c>
       <c r="B640" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="s">
-        <v>175</v>
-      </c>
+      <c r="A641"/>
       <c r="B641" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="s">
-        <v>175</v>
-      </c>
+      <c r="A642"/>
       <c r="B642" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="643">
       <c r="A643"/>
       <c r="B643" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="B644" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B645" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="s">
-        <v>42</v>
-      </c>
+      <c r="A646"/>
       <c r="B646" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B647" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648"/>
+      <c r="A648" t="s">
+        <v>169</v>
+      </c>
       <c r="B648" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="649">
       <c r="A649"/>
       <c r="B649" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="650">
       <c r="A650"/>
       <c r="B650" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B651" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B652" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="653">
-      <c r="A653" t="s">
-        <v>176</v>
-      </c>
+      <c r="A653"/>
       <c r="B653" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="s">
-        <v>176</v>
-      </c>
+      <c r="A654"/>
       <c r="B654" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="s">
-        <v>176</v>
-      </c>
+      <c r="A655"/>
       <c r="B655" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="656">
       <c r="A656"/>
       <c r="B656" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="B657" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="658">
       <c r="A658"/>
       <c r="B658" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B659" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="660">
-      <c r="A660"/>
+      <c r="A660" t="s">
+        <v>171</v>
+      </c>
       <c r="B660" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" t="s">
-        <v>182</v>
-      </c>
+      <c r="A661"/>
       <c r="B661" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="s">
-        <v>183</v>
-      </c>
+      <c r="A662"/>
       <c r="B662" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="s">
-        <v>184</v>
-      </c>
+      <c r="A663"/>
       <c r="B663" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="664">
       <c r="A664"/>
       <c r="B664" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B665" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666"/>
+      <c r="A666" t="s">
+        <v>172</v>
+      </c>
       <c r="B666" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="667">
       <c r="A667"/>
       <c r="B667" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" t="s">
-        <v>180</v>
-      </c>
+      <c r="A668"/>
       <c r="B668" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B669" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670"/>
+      <c r="A670" t="s">
+        <v>62</v>
+      </c>
       <c r="B670" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="B671" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="s">
-        <v>186</v>
-      </c>
+      <c r="A672"/>
       <c r="B672" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="s">
-        <v>180</v>
-      </c>
+      <c r="A673"/>
       <c r="B673" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B674" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="B675" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="s">
-        <v>189</v>
-      </c>
+      <c r="A676"/>
       <c r="B676" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677"/>
+      <c r="A677" t="s">
+        <v>176</v>
+      </c>
       <c r="B677" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678"/>
+      <c r="A678" t="s">
+        <v>38</v>
+      </c>
       <c r="B678" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679"/>
+      <c r="A679" t="s">
+        <v>176</v>
+      </c>
       <c r="B679" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B680" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="681">
       <c r="A681"/>
       <c r="B681" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682"/>
+      <c r="A682" t="s">
+        <v>177</v>
+      </c>
       <c r="B682" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B683" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684"/>
+      <c r="A684" t="s">
+        <v>177</v>
+      </c>
       <c r="B684" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="s">
-        <v>192</v>
-      </c>
+      <c r="A685"/>
       <c r="B685" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686"/>
+      <c r="A686" t="s">
+        <v>177</v>
+      </c>
       <c r="B686" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687"/>
+      <c r="A687" t="s">
+        <v>177</v>
+      </c>
       <c r="B687" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="B688" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689"/>
+      <c r="A689" t="s">
+        <v>181</v>
+      </c>
       <c r="B689" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="690">
-      <c r="A690"/>
+      <c r="A690" t="s">
+        <v>182</v>
+      </c>
       <c r="B690" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="691">
       <c r="A691"/>
       <c r="B691" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692"/>
+      <c r="A692" t="s">
+        <v>179</v>
+      </c>
       <c r="B692" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693"/>
+      <c r="A693" t="s">
+        <v>183</v>
+      </c>
       <c r="B693" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="694">
       <c r="A694"/>
       <c r="B694" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="695">
-      <c r="A695"/>
+      <c r="A695" t="s">
+        <v>184</v>
+      </c>
       <c r="B695" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="696">
       <c r="A696"/>
       <c r="B696" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697"/>
+      <c r="A697" t="s">
+        <v>185</v>
+      </c>
       <c r="B697" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="698">
       <c r="A698"/>
       <c r="B698" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B699" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="s">
-        <v>196</v>
-      </c>
+      <c r="A700"/>
       <c r="B700" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B701" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="s">
-        <v>198</v>
-      </c>
+      <c r="A702"/>
       <c r="B702" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="703">
-      <c r="A703"/>
+      <c r="A703" t="s">
+        <v>187</v>
+      </c>
       <c r="B703" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="704">
       <c r="A704"/>
       <c r="B704" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="s">
-        <v>201</v>
-      </c>
+      <c r="A705"/>
       <c r="B705" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="s">
-        <v>201</v>
-      </c>
+      <c r="A706"/>
       <c r="B706" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="707">
       <c r="A707"/>
       <c r="B707" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B708" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="s">
-        <v>204</v>
-      </c>
+      <c r="A709"/>
       <c r="B709" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B710" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711"/>
+      <c r="A711" t="s">
+        <v>185</v>
+      </c>
       <c r="B711" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="712">
-      <c r="A712"/>
+      <c r="A712" t="s">
+        <v>187</v>
+      </c>
       <c r="B712" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="713">
-      <c r="A713"/>
+      <c r="A713" t="s">
+        <v>38</v>
+      </c>
       <c r="B713" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="714">
-      <c r="A714"/>
+      <c r="A714" t="s">
+        <v>190</v>
+      </c>
       <c r="B714" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="715">
       <c r="A715"/>
       <c r="B715" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
     </row>
     <row r="716">
       <c r="A716"/>
       <c r="B716" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="717">
       <c r="A717"/>
       <c r="B717" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="718">
       <c r="A718"/>
       <c r="B718" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="719">
       <c r="A719"/>
       <c r="B719" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="720">
       <c r="A720"/>
       <c r="B720" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721"/>
+      <c r="A721" t="s">
+        <v>193</v>
+      </c>
       <c r="B721" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="722">
       <c r="A722"/>
       <c r="B722" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="723">
       <c r="A723"/>
       <c r="B723" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="724">
       <c r="A724"/>
       <c r="B724" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="725">
-      <c r="A725"/>
+      <c r="A725" t="s">
+        <v>22</v>
+      </c>
       <c r="B725" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726"/>
+      <c r="A726" t="s">
+        <v>194</v>
+      </c>
       <c r="B726" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="s">
-        <v>6</v>
-      </c>
-      <c r="B727"/>
+      <c r="A727"/>
+      <c r="B727" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>6</v>
-      </c>
-      <c r="B728"/>
+        <v>194</v>
+      </c>
+      <c r="B728" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>6</v>
-      </c>
-      <c r="B729"/>
+        <v>194</v>
+      </c>
+      <c r="B729" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>6</v>
-      </c>
-      <c r="B730"/>
+        <v>197</v>
+      </c>
+      <c r="B730" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="731">
-      <c r="A731"/>
-      <c r="B731"/>
+      <c r="A731" t="s">
+        <v>199</v>
+      </c>
+      <c r="B731" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>6</v>
-      </c>
-      <c r="B732"/>
+        <v>199</v>
+      </c>
+      <c r="B732" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="733">
-      <c r="A733" t="s">
-        <v>9</v>
-      </c>
-      <c r="B733"/>
+      <c r="A733"/>
+      <c r="B733" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>218</v>
-      </c>
-      <c r="B734"/>
+        <v>202</v>
+      </c>
+      <c r="B734" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="735">
-      <c r="A735" t="s">
-        <v>11</v>
-      </c>
-      <c r="B735"/>
+      <c r="A735"/>
+      <c r="B735" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="736">
-      <c r="A736" t="s">
-        <v>2</v>
-      </c>
-      <c r="B736"/>
+      <c r="A736"/>
+      <c r="B736" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="737">
-      <c r="A737"/>
-      <c r="B737"/>
+      <c r="A737" t="s">
+        <v>203</v>
+      </c>
+      <c r="B737" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738"/>
-      <c r="B738"/>
+      <c r="B738" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="739">
-      <c r="A739"/>
-      <c r="B739"/>
+      <c r="A739" t="s">
+        <v>203</v>
+      </c>
+      <c r="B739" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740"/>
-      <c r="B740"/>
+      <c r="B740" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741"/>
-      <c r="B741"/>
+      <c r="B741" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>42</v>
-      </c>
-      <c r="B742"/>
+        <v>206</v>
+      </c>
+      <c r="B742" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743"/>
-      <c r="B743"/>
+      <c r="B743" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="744">
-      <c r="A744" t="s">
-        <v>219</v>
-      </c>
-      <c r="B744"/>
+      <c r="A744"/>
+      <c r="B744" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745"/>
-      <c r="B745"/>
+      <c r="B745" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746"/>
-      <c r="B746"/>
+      <c r="B746" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747"/>
-      <c r="B747"/>
+      <c r="B747" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748"/>
-      <c r="B748"/>
+      <c r="B748" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="749">
-      <c r="A749" t="s">
-        <v>12</v>
-      </c>
-      <c r="B749"/>
+      <c r="A749"/>
+      <c r="B749" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="750">
-      <c r="A750" t="s">
-        <v>220</v>
-      </c>
-      <c r="B750"/>
+      <c r="A750"/>
+      <c r="B750" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="751">
-      <c r="A751" t="s">
-        <v>8</v>
-      </c>
-      <c r="B751"/>
+      <c r="A751"/>
+      <c r="B751" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="752">
-      <c r="A752" t="s">
-        <v>6</v>
-      </c>
-      <c r="B752"/>
+      <c r="A752"/>
+      <c r="B752" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="753">
-      <c r="A753" t="s">
-        <v>6</v>
-      </c>
-      <c r="B753"/>
+      <c r="A753"/>
+      <c r="B753" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="754">
-      <c r="A754" t="s">
-        <v>6</v>
-      </c>
-      <c r="B754"/>
+      <c r="A754"/>
+      <c r="B754" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="755">
-      <c r="A755" t="s">
-        <v>6</v>
-      </c>
-      <c r="B755"/>
+      <c r="A755"/>
+      <c r="B755" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="756">
-      <c r="A756" t="s">
-        <v>4</v>
-      </c>
-      <c r="B756"/>
+      <c r="A756"/>
+      <c r="B756" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="757">
-      <c r="A757" t="s">
-        <v>2</v>
-      </c>
-      <c r="B757"/>
+      <c r="A757"/>
+      <c r="B757" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758"/>
-      <c r="B758"/>
+      <c r="B758" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759"/>
-      <c r="B759"/>
+      <c r="B759" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="760">
-      <c r="A760" t="s">
-        <v>2</v>
-      </c>
-      <c r="B760"/>
+      <c r="A760"/>
+      <c r="B760" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="761">
-      <c r="A761" t="s">
-        <v>2</v>
-      </c>
-      <c r="B761"/>
+      <c r="A761"/>
+      <c r="B761" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="762">
-      <c r="A762" t="s">
-        <v>2</v>
-      </c>
-      <c r="B762"/>
+      <c r="A762"/>
+      <c r="B762" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="763">
-      <c r="A763" t="s">
-        <v>153</v>
-      </c>
-      <c r="B763"/>
+      <c r="A763"/>
+      <c r="B763" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="764">
-      <c r="A764" t="s">
-        <v>221</v>
-      </c>
-      <c r="B764"/>
+      <c r="A764"/>
+      <c r="B764" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="765">
-      <c r="A765" t="s">
-        <v>222</v>
-      </c>
-      <c r="B765"/>
+      <c r="A765"/>
+      <c r="B765" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766"/>
-      <c r="B766"/>
+      <c r="B766" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767"/>
-      <c r="B767"/>
+      <c r="B767" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="768">
-      <c r="A768" t="s">
+      <c r="A768"/>
+      <c r="B768" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769"/>
+      <c r="B769" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770"/>
+      <c r="B770" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771"/>
+      <c r="B771" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772"/>
+      <c r="B772" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773"/>
+      <c r="B773" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774"/>
+      <c r="B774" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775"/>
+      <c r="B775" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776"/>
+      <c r="B776" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777"/>
+      <c r="B777" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778"/>
+      <c r="B778" t="s">
         <v>223</v>
       </c>
-      <c r="B768"/>
-    </row>
-    <row r="769">
-      <c r="A769" t="s">
-        <v>223</v>
-      </c>
-      <c r="B769"/>
-    </row>
-    <row r="770">
-      <c r="A770" t="s">
-        <v>223</v>
-      </c>
-      <c r="B770"/>
-    </row>
-    <row r="771">
-      <c r="A771" t="s">
-        <v>223</v>
-      </c>
-      <c r="B771"/>
-    </row>
-    <row r="772">
-      <c r="A772" t="s">
-        <v>223</v>
-      </c>
-      <c r="B772"/>
-    </row>
-    <row r="773">
-      <c r="A773" t="s">
-        <v>223</v>
-      </c>
-      <c r="B773"/>
-    </row>
-    <row r="774">
-      <c r="A774" t="s">
-        <v>2</v>
-      </c>
-      <c r="B774"/>
-    </row>
-    <row r="775">
-      <c r="A775" t="s">
-        <v>12</v>
-      </c>
-      <c r="B775"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="s">
-        <v>2</v>
-      </c>
-      <c r="B776"/>
-    </row>
-    <row r="777">
-      <c r="A777" t="s">
-        <v>224</v>
-      </c>
-      <c r="B777"/>
-    </row>
-    <row r="778">
-      <c r="A778" t="s">
-        <v>224</v>
-      </c>
-      <c r="B778"/>
     </row>
     <row r="779">
       <c r="A779"/>
-      <c r="B779"/>
+      <c r="B779" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="B780"/>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="B781"/>
     </row>
     <row r="782">
-      <c r="A782"/>
+      <c r="A782" t="s">
+        <v>3</v>
+      </c>
       <c r="B782"/>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="B783"/>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="B784"/>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="B785"/>
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B786"/>
     </row>
     <row r="787">
-      <c r="A787"/>
+      <c r="A787" t="s">
+        <v>4</v>
+      </c>
       <c r="B787"/>
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B788"/>
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B789"/>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B791"/>
     </row>
     <row r="792">
-      <c r="A792" t="s">
-        <v>8</v>
-      </c>
+      <c r="A792"/>
       <c r="B792"/>
     </row>
     <row r="793">
-      <c r="A793"/>
+      <c r="A793" t="s">
+        <v>225</v>
+      </c>
       <c r="B793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B795"/>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="B796"/>
     </row>
     <row r="797">
-      <c r="A797" t="s">
-        <v>226</v>
-      </c>
+      <c r="A797"/>
       <c r="B797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="B798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="B799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="B800"/>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="B801"/>
     </row>
     <row r="802">
-      <c r="A802"/>
+      <c r="A802" t="s">
+        <v>229</v>
+      </c>
       <c r="B802"/>
     </row>
     <row r="803">
-      <c r="A803" t="s">
-        <v>8</v>
-      </c>
+      <c r="A803"/>
       <c r="B803"/>
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="B804"/>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B805"/>
     </row>
     <row r="806">
-      <c r="A806"/>
+      <c r="A806" t="s">
+        <v>3</v>
+      </c>
       <c r="B806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B807"/>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B808"/>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="B809"/>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="B810"/>
     </row>
@@ -6803,135 +6896,145 @@
       <c r="B811"/>
     </row>
     <row r="812">
-      <c r="A812" t="s">
-        <v>231</v>
-      </c>
+      <c r="A812"/>
       <c r="B812"/>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="B813"/>
     </row>
     <row r="814">
-      <c r="A814"/>
+      <c r="A814" t="s">
+        <v>232</v>
+      </c>
       <c r="B814"/>
     </row>
     <row r="815">
-      <c r="A815"/>
+      <c r="A815" t="s">
+        <v>231</v>
+      </c>
       <c r="B815"/>
     </row>
     <row r="816">
-      <c r="A816"/>
+      <c r="A816" t="s">
+        <v>233</v>
+      </c>
       <c r="B816"/>
     </row>
     <row r="817">
       <c r="A817" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B817"/>
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="B818"/>
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B819"/>
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B820"/>
     </row>
     <row r="821">
-      <c r="A821" t="s">
-        <v>4</v>
-      </c>
+      <c r="A821"/>
       <c r="B821"/>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B823"/>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="B824"/>
     </row>
     <row r="825">
-      <c r="A825"/>
+      <c r="A825" t="s">
+        <v>235</v>
+      </c>
       <c r="B825"/>
     </row>
     <row r="826">
-      <c r="A826"/>
+      <c r="A826" t="s">
+        <v>235</v>
+      </c>
       <c r="B826"/>
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B827"/>
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B828"/>
     </row>
     <row r="829">
-      <c r="A829" t="s">
-        <v>112</v>
-      </c>
+      <c r="A829"/>
       <c r="B829"/>
     </row>
     <row r="830">
-      <c r="A830"/>
+      <c r="A830" t="s">
+        <v>11</v>
+      </c>
       <c r="B830"/>
     </row>
     <row r="831">
-      <c r="A831"/>
+      <c r="A831" t="s">
+        <v>236</v>
+      </c>
       <c r="B831"/>
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="B832"/>
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="B833"/>
     </row>
     <row r="834">
-      <c r="A834"/>
+      <c r="A834" t="s">
+        <v>4</v>
+      </c>
       <c r="B834"/>
     </row>
     <row r="835">
-      <c r="A835"/>
+      <c r="A835" t="s">
+        <v>236</v>
+      </c>
       <c r="B835"/>
     </row>
     <row r="836">
-      <c r="A836" t="s">
-        <v>224</v>
-      </c>
+      <c r="A836"/>
       <c r="B836"/>
     </row>
     <row r="837">
@@ -6939,53 +7042,59 @@
       <c r="B837"/>
     </row>
     <row r="838">
-      <c r="A838" t="s">
-        <v>232</v>
-      </c>
+      <c r="A838"/>
       <c r="B838"/>
     </row>
     <row r="839">
-      <c r="A839"/>
+      <c r="A839" t="s">
+        <v>23</v>
+      </c>
       <c r="B839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="B840"/>
     </row>
     <row r="841">
-      <c r="A841"/>
+      <c r="A841" t="s">
+        <v>23</v>
+      </c>
       <c r="B841"/>
     </row>
     <row r="842">
-      <c r="A842" t="s">
-        <v>2</v>
-      </c>
+      <c r="A842"/>
       <c r="B842"/>
     </row>
     <row r="843">
-      <c r="A843"/>
+      <c r="A843" t="s">
+        <v>7</v>
+      </c>
       <c r="B843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B844"/>
     </row>
     <row r="845">
-      <c r="A845"/>
+      <c r="A845" t="s">
+        <v>237</v>
+      </c>
       <c r="B845"/>
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="B846"/>
     </row>
     <row r="847">
-      <c r="A847"/>
+      <c r="A847" t="s">
+        <v>7</v>
+      </c>
       <c r="B847"/>
     </row>
     <row r="848">
@@ -6994,20 +7103,16 @@
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="B849"/>
     </row>
     <row r="850">
-      <c r="A850" t="s">
-        <v>4</v>
-      </c>
+      <c r="A850"/>
       <c r="B850"/>
     </row>
     <row r="851">
-      <c r="A851" t="s">
-        <v>233</v>
-      </c>
+      <c r="A851"/>
       <c r="B851"/>
     </row>
     <row r="852">
@@ -7015,60 +7120,304 @@
       <c r="B852"/>
     </row>
     <row r="853">
-      <c r="A853"/>
+      <c r="A853" t="s">
+        <v>7</v>
+      </c>
       <c r="B853"/>
     </row>
     <row r="854">
-      <c r="A854"/>
+      <c r="A854" t="s">
+        <v>231</v>
+      </c>
       <c r="B854"/>
     </row>
     <row r="855">
-      <c r="A855"/>
+      <c r="A855" t="s">
+        <v>233</v>
+      </c>
       <c r="B855"/>
     </row>
     <row r="856">
-      <c r="A856" t="s">
-        <v>234</v>
-      </c>
+      <c r="A856"/>
       <c r="B856"/>
     </row>
     <row r="857">
-      <c r="A857"/>
+      <c r="A857" t="s">
+        <v>109</v>
+      </c>
       <c r="B857"/>
     </row>
     <row r="858">
-      <c r="A858"/>
+      <c r="A858" t="s">
+        <v>233</v>
+      </c>
       <c r="B858"/>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B859"/>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="B860"/>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B861"/>
     </row>
     <row r="862">
       <c r="A862" t="s">
+        <v>109</v>
+      </c>
+      <c r="B862"/>
+    </row>
+    <row r="863">
+      <c r="A863"/>
+      <c r="B863"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>238</v>
+      </c>
+      <c r="B864"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>7</v>
+      </c>
+      <c r="B865"/>
+    </row>
+    <row r="866">
+      <c r="A866"/>
+      <c r="B866"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>233</v>
+      </c>
+      <c r="B867"/>
+    </row>
+    <row r="868">
+      <c r="A868"/>
+      <c r="B868"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>233</v>
+      </c>
+      <c r="B869"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>233</v>
+      </c>
+      <c r="B870"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>109</v>
+      </c>
+      <c r="B871"/>
+    </row>
+    <row r="872">
+      <c r="A872"/>
+      <c r="B872"/>
+    </row>
+    <row r="873">
+      <c r="A873"/>
+      <c r="B873"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>6</v>
+      </c>
+      <c r="B874"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B875"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>239</v>
+      </c>
+      <c r="B876"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>109</v>
+      </c>
+      <c r="B877"/>
+    </row>
+    <row r="878">
+      <c r="A878"/>
+      <c r="B878"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>8</v>
+      </c>
+      <c r="B879"/>
+    </row>
+    <row r="880">
+      <c r="A880"/>
+      <c r="B880"/>
+    </row>
+    <row r="881">
+      <c r="A881"/>
+      <c r="B881"/>
+    </row>
+    <row r="882">
+      <c r="A882"/>
+      <c r="B882"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>23</v>
+      </c>
+      <c r="B883"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>8</v>
+      </c>
+      <c r="B884"/>
+    </row>
+    <row r="885">
+      <c r="A885"/>
+      <c r="B885"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>109</v>
+      </c>
+      <c r="B886"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>240</v>
+      </c>
+      <c r="B887"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>8</v>
+      </c>
+      <c r="B888"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>241</v>
+      </c>
+      <c r="B889"/>
+    </row>
+    <row r="890">
+      <c r="A890"/>
+      <c r="B890"/>
+    </row>
+    <row r="891">
+      <c r="A891"/>
+      <c r="B891"/>
+    </row>
+    <row r="892">
+      <c r="A892"/>
+      <c r="B892"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>8</v>
+      </c>
+      <c r="B893"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>242</v>
+      </c>
+      <c r="B894"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>8</v>
+      </c>
+      <c r="B895"/>
+    </row>
+    <row r="896">
+      <c r="A896"/>
+      <c r="B896"/>
+    </row>
+    <row r="897">
+      <c r="A897"/>
+      <c r="B897"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>243</v>
+      </c>
+      <c r="B898"/>
+    </row>
+    <row r="899">
+      <c r="A899"/>
+      <c r="B899"/>
+    </row>
+    <row r="900">
+      <c r="A900"/>
+      <c r="B900"/>
+    </row>
+    <row r="901">
+      <c r="A901"/>
+      <c r="B901"/>
+    </row>
+    <row r="902">
+      <c r="A902"/>
+      <c r="B902"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>243</v>
+      </c>
+      <c r="B903"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
         <v>236</v>
       </c>
-      <c r="B862"/>
-    </row>
-    <row r="863">
-      <c r="A863" t="s">
-        <v>224</v>
-      </c>
-      <c r="B863"/>
+      <c r="B904"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>8</v>
+      </c>
+      <c r="B905"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>242</v>
+      </c>
+      <c r="B906"/>
+    </row>
+    <row r="907">
+      <c r="A907"/>
+      <c r="B907"/>
+    </row>
+    <row r="908">
+      <c r="A908"/>
+      <c r="B908"/>
+    </row>
+    <row r="909">
+      <c r="A909"/>
+      <c r="B909"/>
+    </row>
+    <row r="910">
+      <c r="A910"/>
+      <c r="B910"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
